--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_296.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_296.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33052-d81245-Reviews-Gateway_Hotel_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1315</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Gateway-Hotel-Santa-Monica.h20112885.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_296.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_296.xlsx
@@ -13658,7 +13658,7 @@
         <v>19826</v>
       </c>
       <c r="B2" t="n">
-        <v>148836</v>
+        <v>180294</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -13727,7 +13727,7 @@
         <v>19826</v>
       </c>
       <c r="B3" t="n">
-        <v>148837</v>
+        <v>180295</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -13788,7 +13788,7 @@
         <v>19826</v>
       </c>
       <c r="B4" t="n">
-        <v>148838</v>
+        <v>180296</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -13853,7 +13853,7 @@
         <v>19826</v>
       </c>
       <c r="B5" t="n">
-        <v>148839</v>
+        <v>180297</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -13918,7 +13918,7 @@
         <v>19826</v>
       </c>
       <c r="B6" t="n">
-        <v>148840</v>
+        <v>180298</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -14312,7 +14312,7 @@
         <v>19826</v>
       </c>
       <c r="B12" t="n">
-        <v>148841</v>
+        <v>180299</v>
       </c>
       <c r="C12" t="s">
         <v>137</v>
@@ -14383,7 +14383,7 @@
         <v>19826</v>
       </c>
       <c r="B13" t="n">
-        <v>148842</v>
+        <v>180300</v>
       </c>
       <c r="C13" t="s">
         <v>145</v>
@@ -14452,7 +14452,7 @@
         <v>19826</v>
       </c>
       <c r="B14" t="n">
-        <v>148843</v>
+        <v>180301</v>
       </c>
       <c r="C14" t="s">
         <v>152</v>
@@ -14521,7 +14521,7 @@
         <v>19826</v>
       </c>
       <c r="B15" t="n">
-        <v>148844</v>
+        <v>180302</v>
       </c>
       <c r="C15" t="s">
         <v>162</v>
@@ -14657,7 +14657,7 @@
         <v>19826</v>
       </c>
       <c r="B17" t="n">
-        <v>148845</v>
+        <v>180303</v>
       </c>
       <c r="C17" t="s">
         <v>176</v>
@@ -14722,7 +14722,7 @@
         <v>19826</v>
       </c>
       <c r="B18" t="n">
-        <v>148846</v>
+        <v>180304</v>
       </c>
       <c r="C18" t="s">
         <v>185</v>
@@ -14783,7 +14783,7 @@
         <v>19826</v>
       </c>
       <c r="B19" t="n">
-        <v>148847</v>
+        <v>180305</v>
       </c>
       <c r="C19" t="s">
         <v>192</v>
@@ -14848,7 +14848,7 @@
         <v>19826</v>
       </c>
       <c r="B20" t="n">
-        <v>148848</v>
+        <v>180306</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -14913,7 +14913,7 @@
         <v>19826</v>
       </c>
       <c r="B21" t="n">
-        <v>148849</v>
+        <v>180307</v>
       </c>
       <c r="C21" t="s">
         <v>212</v>
@@ -14978,7 +14978,7 @@
         <v>19826</v>
       </c>
       <c r="B22" t="n">
-        <v>148850</v>
+        <v>180308</v>
       </c>
       <c r="C22" t="s">
         <v>219</v>
@@ -15047,7 +15047,7 @@
         <v>19826</v>
       </c>
       <c r="B23" t="n">
-        <v>148851</v>
+        <v>180309</v>
       </c>
       <c r="C23" t="s">
         <v>227</v>
@@ -15118,7 +15118,7 @@
         <v>19826</v>
       </c>
       <c r="B24" t="n">
-        <v>148852</v>
+        <v>180310</v>
       </c>
       <c r="C24" t="s">
         <v>237</v>
@@ -15189,7 +15189,7 @@
         <v>19826</v>
       </c>
       <c r="B25" t="n">
-        <v>148853</v>
+        <v>180311</v>
       </c>
       <c r="C25" t="s">
         <v>246</v>
@@ -15260,7 +15260,7 @@
         <v>19826</v>
       </c>
       <c r="B26" t="n">
-        <v>148854</v>
+        <v>180312</v>
       </c>
       <c r="C26" t="s">
         <v>252</v>
@@ -15390,7 +15390,7 @@
         <v>19826</v>
       </c>
       <c r="B28" t="n">
-        <v>148855</v>
+        <v>180313</v>
       </c>
       <c r="C28" t="s">
         <v>271</v>
@@ -15615,7 +15615,7 @@
         <v>19826</v>
       </c>
       <c r="B31" t="n">
-        <v>148856</v>
+        <v>180314</v>
       </c>
       <c r="C31" t="s">
         <v>293</v>
@@ -15690,7 +15690,7 @@
         <v>19826</v>
       </c>
       <c r="B32" t="n">
-        <v>148857</v>
+        <v>180315</v>
       </c>
       <c r="C32" t="s">
         <v>300</v>
@@ -15905,7 +15905,7 @@
         <v>19826</v>
       </c>
       <c r="B35" t="n">
-        <v>148858</v>
+        <v>180316</v>
       </c>
       <c r="C35" t="s">
         <v>325</v>
@@ -15974,7 +15974,7 @@
         <v>19826</v>
       </c>
       <c r="B36" t="n">
-        <v>148859</v>
+        <v>180317</v>
       </c>
       <c r="C36" t="s">
         <v>334</v>
@@ -16039,7 +16039,7 @@
         <v>19826</v>
       </c>
       <c r="B37" t="n">
-        <v>148860</v>
+        <v>180318</v>
       </c>
       <c r="C37" t="s">
         <v>341</v>
@@ -16110,7 +16110,7 @@
         <v>19826</v>
       </c>
       <c r="B38" t="n">
-        <v>148861</v>
+        <v>180319</v>
       </c>
       <c r="C38" t="s">
         <v>348</v>
@@ -16171,7 +16171,7 @@
         <v>19826</v>
       </c>
       <c r="B39" t="n">
-        <v>148862</v>
+        <v>180320</v>
       </c>
       <c r="C39" t="s">
         <v>357</v>
@@ -16246,7 +16246,7 @@
         <v>19826</v>
       </c>
       <c r="B40" t="n">
-        <v>148863</v>
+        <v>180321</v>
       </c>
       <c r="C40" t="s">
         <v>363</v>
@@ -16307,7 +16307,7 @@
         <v>19826</v>
       </c>
       <c r="B41" t="n">
-        <v>148864</v>
+        <v>180322</v>
       </c>
       <c r="C41" t="s">
         <v>370</v>
@@ -16372,7 +16372,7 @@
         <v>19826</v>
       </c>
       <c r="B42" t="n">
-        <v>148865</v>
+        <v>180323</v>
       </c>
       <c r="C42" t="s">
         <v>379</v>
@@ -16518,7 +16518,7 @@
         <v>19826</v>
       </c>
       <c r="B44" t="n">
-        <v>148866</v>
+        <v>180324</v>
       </c>
       <c r="C44" t="s">
         <v>397</v>
@@ -16593,7 +16593,7 @@
         <v>19826</v>
       </c>
       <c r="B45" t="n">
-        <v>148867</v>
+        <v>180325</v>
       </c>
       <c r="C45" t="s">
         <v>406</v>
@@ -16863,7 +16863,7 @@
         <v>19826</v>
       </c>
       <c r="B49" t="n">
-        <v>148868</v>
+        <v>180326</v>
       </c>
       <c r="C49" t="s">
         <v>436</v>
@@ -16938,7 +16938,7 @@
         <v>19826</v>
       </c>
       <c r="B50" t="n">
-        <v>148869</v>
+        <v>180327</v>
       </c>
       <c r="C50" t="s">
         <v>443</v>
@@ -17013,7 +17013,7 @@
         <v>19826</v>
       </c>
       <c r="B51" t="n">
-        <v>148870</v>
+        <v>180328</v>
       </c>
       <c r="C51" t="s">
         <v>452</v>
@@ -17084,7 +17084,7 @@
         <v>19826</v>
       </c>
       <c r="B52" t="n">
-        <v>148871</v>
+        <v>180329</v>
       </c>
       <c r="C52" t="s">
         <v>458</v>
@@ -17155,7 +17155,7 @@
         <v>19826</v>
       </c>
       <c r="B53" t="n">
-        <v>148872</v>
+        <v>180330</v>
       </c>
       <c r="C53" t="s">
         <v>468</v>
@@ -17230,7 +17230,7 @@
         <v>19826</v>
       </c>
       <c r="B54" t="n">
-        <v>148873</v>
+        <v>180331</v>
       </c>
       <c r="C54" t="s">
         <v>475</v>
@@ -17380,7 +17380,7 @@
         <v>19826</v>
       </c>
       <c r="B56" t="n">
-        <v>148874</v>
+        <v>180332</v>
       </c>
       <c r="C56" t="s">
         <v>491</v>
@@ -17455,7 +17455,7 @@
         <v>19826</v>
       </c>
       <c r="B57" t="n">
-        <v>148875</v>
+        <v>180333</v>
       </c>
       <c r="C57" t="s">
         <v>501</v>
@@ -17530,7 +17530,7 @@
         <v>19826</v>
       </c>
       <c r="B58" t="n">
-        <v>148876</v>
+        <v>180334</v>
       </c>
       <c r="C58" t="s">
         <v>507</v>
@@ -17599,7 +17599,7 @@
         <v>19826</v>
       </c>
       <c r="B59" t="n">
-        <v>148877</v>
+        <v>180335</v>
       </c>
       <c r="C59" t="s">
         <v>516</v>
@@ -17660,7 +17660,7 @@
         <v>19826</v>
       </c>
       <c r="B60" t="n">
-        <v>148878</v>
+        <v>180336</v>
       </c>
       <c r="C60" t="s">
         <v>525</v>
@@ -17725,7 +17725,7 @@
         <v>19826</v>
       </c>
       <c r="B61" t="n">
-        <v>148879</v>
+        <v>180337</v>
       </c>
       <c r="C61" t="s">
         <v>534</v>
@@ -17800,7 +17800,7 @@
         <v>19826</v>
       </c>
       <c r="B62" t="n">
-        <v>148880</v>
+        <v>180338</v>
       </c>
       <c r="C62" t="s">
         <v>543</v>
@@ -17875,7 +17875,7 @@
         <v>19826</v>
       </c>
       <c r="B63" t="n">
-        <v>148881</v>
+        <v>180339</v>
       </c>
       <c r="C63" t="s">
         <v>552</v>
@@ -17950,7 +17950,7 @@
         <v>19826</v>
       </c>
       <c r="B64" t="n">
-        <v>148882</v>
+        <v>180340</v>
       </c>
       <c r="C64" t="s">
         <v>559</v>
@@ -18021,7 +18021,7 @@
         <v>19826</v>
       </c>
       <c r="B65" t="n">
-        <v>148883</v>
+        <v>180341</v>
       </c>
       <c r="C65" t="s">
         <v>569</v>
@@ -18096,7 +18096,7 @@
         <v>19826</v>
       </c>
       <c r="B66" t="n">
-        <v>148884</v>
+        <v>180342</v>
       </c>
       <c r="C66" t="s">
         <v>578</v>
@@ -18242,7 +18242,7 @@
         <v>19826</v>
       </c>
       <c r="B68" t="n">
-        <v>148885</v>
+        <v>180343</v>
       </c>
       <c r="C68" t="s">
         <v>592</v>
@@ -18317,7 +18317,7 @@
         <v>19826</v>
       </c>
       <c r="B69" t="n">
-        <v>148886</v>
+        <v>180344</v>
       </c>
       <c r="C69" t="s">
         <v>601</v>
@@ -18382,7 +18382,7 @@
         <v>19826</v>
       </c>
       <c r="B70" t="n">
-        <v>148887</v>
+        <v>180345</v>
       </c>
       <c r="C70" t="s">
         <v>608</v>
@@ -18453,7 +18453,7 @@
         <v>19826</v>
       </c>
       <c r="B71" t="n">
-        <v>148888</v>
+        <v>180346</v>
       </c>
       <c r="C71" t="s">
         <v>614</v>
@@ -18518,7 +18518,7 @@
         <v>19826</v>
       </c>
       <c r="B72" t="n">
-        <v>148889</v>
+        <v>180347</v>
       </c>
       <c r="C72" t="s">
         <v>621</v>
@@ -18587,7 +18587,7 @@
         <v>19826</v>
       </c>
       <c r="B73" t="n">
-        <v>148890</v>
+        <v>180348</v>
       </c>
       <c r="C73" t="s">
         <v>630</v>
@@ -18662,7 +18662,7 @@
         <v>19826</v>
       </c>
       <c r="B74" t="n">
-        <v>148891</v>
+        <v>180349</v>
       </c>
       <c r="C74" t="s">
         <v>636</v>
@@ -18727,7 +18727,7 @@
         <v>19826</v>
       </c>
       <c r="B75" t="n">
-        <v>148892</v>
+        <v>180350</v>
       </c>
       <c r="C75" t="s">
         <v>645</v>
@@ -18798,7 +18798,7 @@
         <v>19826</v>
       </c>
       <c r="B76" t="n">
-        <v>148893</v>
+        <v>180351</v>
       </c>
       <c r="C76" t="s">
         <v>651</v>
@@ -18873,7 +18873,7 @@
         <v>19826</v>
       </c>
       <c r="B77" t="n">
-        <v>148894</v>
+        <v>180352</v>
       </c>
       <c r="C77" t="s">
         <v>657</v>
@@ -18948,7 +18948,7 @@
         <v>19826</v>
       </c>
       <c r="B78" t="n">
-        <v>148895</v>
+        <v>180353</v>
       </c>
       <c r="C78" t="s">
         <v>666</v>
@@ -19023,7 +19023,7 @@
         <v>19826</v>
       </c>
       <c r="B79" t="n">
-        <v>148896</v>
+        <v>180354</v>
       </c>
       <c r="C79" t="s">
         <v>675</v>
@@ -19163,7 +19163,7 @@
         <v>19826</v>
       </c>
       <c r="B81" t="n">
-        <v>148897</v>
+        <v>180355</v>
       </c>
       <c r="C81" t="s">
         <v>689</v>
@@ -19238,7 +19238,7 @@
         <v>19826</v>
       </c>
       <c r="B82" t="n">
-        <v>148898</v>
+        <v>180356</v>
       </c>
       <c r="C82" t="s">
         <v>698</v>
@@ -19303,7 +19303,7 @@
         <v>19826</v>
       </c>
       <c r="B83" t="n">
-        <v>148899</v>
+        <v>180357</v>
       </c>
       <c r="C83" t="s">
         <v>707</v>
@@ -19364,7 +19364,7 @@
         <v>19826</v>
       </c>
       <c r="B84" t="n">
-        <v>148900</v>
+        <v>180358</v>
       </c>
       <c r="C84" t="s">
         <v>716</v>
@@ -19502,7 +19502,7 @@
         <v>19826</v>
       </c>
       <c r="B86" t="n">
-        <v>148901</v>
+        <v>180359</v>
       </c>
       <c r="C86" t="s">
         <v>732</v>
@@ -19571,7 +19571,7 @@
         <v>19826</v>
       </c>
       <c r="B87" t="n">
-        <v>148902</v>
+        <v>180360</v>
       </c>
       <c r="C87" t="s">
         <v>741</v>
@@ -19636,7 +19636,7 @@
         <v>19826</v>
       </c>
       <c r="B88" t="n">
-        <v>148903</v>
+        <v>180361</v>
       </c>
       <c r="C88" t="s">
         <v>750</v>
@@ -19711,7 +19711,7 @@
         <v>19826</v>
       </c>
       <c r="B89" t="n">
-        <v>148904</v>
+        <v>180362</v>
       </c>
       <c r="C89" t="s">
         <v>757</v>
@@ -19861,7 +19861,7 @@
         <v>19826</v>
       </c>
       <c r="B91" t="n">
-        <v>148905</v>
+        <v>180363</v>
       </c>
       <c r="C91" t="s">
         <v>773</v>
@@ -19926,7 +19926,7 @@
         <v>19826</v>
       </c>
       <c r="B92" t="n">
-        <v>148906</v>
+        <v>180364</v>
       </c>
       <c r="C92" t="s">
         <v>782</v>
@@ -19991,7 +19991,7 @@
         <v>19826</v>
       </c>
       <c r="B93" t="n">
-        <v>148907</v>
+        <v>180365</v>
       </c>
       <c r="C93" t="s">
         <v>791</v>
@@ -20206,7 +20206,7 @@
         <v>19826</v>
       </c>
       <c r="B96" t="n">
-        <v>148908</v>
+        <v>180366</v>
       </c>
       <c r="C96" t="s">
         <v>816</v>
@@ -20275,7 +20275,7 @@
         <v>19826</v>
       </c>
       <c r="B97" t="n">
-        <v>148909</v>
+        <v>180367</v>
       </c>
       <c r="C97" t="s">
         <v>826</v>
@@ -20350,7 +20350,7 @@
         <v>19826</v>
       </c>
       <c r="B98" t="n">
-        <v>148910</v>
+        <v>180368</v>
       </c>
       <c r="C98" t="s">
         <v>835</v>
@@ -20425,7 +20425,7 @@
         <v>19826</v>
       </c>
       <c r="B99" t="n">
-        <v>148911</v>
+        <v>180369</v>
       </c>
       <c r="C99" t="s">
         <v>844</v>
@@ -20565,7 +20565,7 @@
         <v>19826</v>
       </c>
       <c r="B101" t="n">
-        <v>148912</v>
+        <v>180370</v>
       </c>
       <c r="C101" t="s">
         <v>858</v>
@@ -20636,7 +20636,7 @@
         <v>19826</v>
       </c>
       <c r="B102" t="n">
-        <v>148913</v>
+        <v>180371</v>
       </c>
       <c r="C102" t="s">
         <v>868</v>
@@ -20707,7 +20707,7 @@
         <v>19826</v>
       </c>
       <c r="B103" t="n">
-        <v>148914</v>
+        <v>180372</v>
       </c>
       <c r="C103" t="s">
         <v>877</v>
@@ -20772,7 +20772,7 @@
         <v>19826</v>
       </c>
       <c r="B104" t="n">
-        <v>148915</v>
+        <v>180373</v>
       </c>
       <c r="C104" t="s">
         <v>886</v>
@@ -20847,7 +20847,7 @@
         <v>19826</v>
       </c>
       <c r="B105" t="n">
-        <v>148916</v>
+        <v>180374</v>
       </c>
       <c r="C105" t="s">
         <v>895</v>
@@ -20918,7 +20918,7 @@
         <v>19826</v>
       </c>
       <c r="B106" t="n">
-        <v>148917</v>
+        <v>180375</v>
       </c>
       <c r="C106" t="s">
         <v>904</v>
@@ -20993,7 +20993,7 @@
         <v>19826</v>
       </c>
       <c r="B107" t="n">
-        <v>148918</v>
+        <v>180376</v>
       </c>
       <c r="C107" t="s">
         <v>913</v>
@@ -21127,7 +21127,7 @@
         <v>19826</v>
       </c>
       <c r="B109" t="n">
-        <v>148919</v>
+        <v>180377</v>
       </c>
       <c r="C109" t="s">
         <v>930</v>
@@ -21192,7 +21192,7 @@
         <v>19826</v>
       </c>
       <c r="B110" t="n">
-        <v>148920</v>
+        <v>180378</v>
       </c>
       <c r="C110" t="s">
         <v>939</v>
@@ -21263,7 +21263,7 @@
         <v>19826</v>
       </c>
       <c r="B111" t="n">
-        <v>148921</v>
+        <v>180379</v>
       </c>
       <c r="C111" t="s">
         <v>948</v>
@@ -21338,7 +21338,7 @@
         <v>19826</v>
       </c>
       <c r="B112" t="n">
-        <v>148922</v>
+        <v>180380</v>
       </c>
       <c r="C112" t="s">
         <v>956</v>
@@ -21413,7 +21413,7 @@
         <v>19826</v>
       </c>
       <c r="B113" t="n">
-        <v>148923</v>
+        <v>180381</v>
       </c>
       <c r="C113" t="s">
         <v>965</v>
@@ -21488,7 +21488,7 @@
         <v>19826</v>
       </c>
       <c r="B114" t="n">
-        <v>148924</v>
+        <v>180382</v>
       </c>
       <c r="C114" t="s">
         <v>974</v>
@@ -21563,7 +21563,7 @@
         <v>19826</v>
       </c>
       <c r="B115" t="n">
-        <v>148925</v>
+        <v>180383</v>
       </c>
       <c r="C115" t="s">
         <v>981</v>
@@ -21638,7 +21638,7 @@
         <v>19826</v>
       </c>
       <c r="B116" t="n">
-        <v>148926</v>
+        <v>180384</v>
       </c>
       <c r="C116" t="s">
         <v>990</v>
@@ -21699,7 +21699,7 @@
         <v>19826</v>
       </c>
       <c r="B117" t="n">
-        <v>148927</v>
+        <v>180385</v>
       </c>
       <c r="C117" t="s">
         <v>997</v>
@@ -21764,7 +21764,7 @@
         <v>19826</v>
       </c>
       <c r="B118" t="n">
-        <v>148928</v>
+        <v>180386</v>
       </c>
       <c r="C118" t="s">
         <v>1005</v>
@@ -21825,7 +21825,7 @@
         <v>19826</v>
       </c>
       <c r="B119" t="n">
-        <v>148929</v>
+        <v>180387</v>
       </c>
       <c r="C119" t="s">
         <v>1012</v>
@@ -21900,7 +21900,7 @@
         <v>19826</v>
       </c>
       <c r="B120" t="n">
-        <v>148930</v>
+        <v>180388</v>
       </c>
       <c r="C120" t="s">
         <v>1022</v>
@@ -21971,7 +21971,7 @@
         <v>19826</v>
       </c>
       <c r="B121" t="n">
-        <v>148931</v>
+        <v>180389</v>
       </c>
       <c r="C121" t="s">
         <v>1029</v>
@@ -22040,7 +22040,7 @@
         <v>19826</v>
       </c>
       <c r="B122" t="n">
-        <v>148932</v>
+        <v>180390</v>
       </c>
       <c r="C122" t="s">
         <v>1038</v>
@@ -22180,7 +22180,7 @@
         <v>19826</v>
       </c>
       <c r="B124" t="n">
-        <v>148933</v>
+        <v>180391</v>
       </c>
       <c r="C124" t="s">
         <v>1056</v>
@@ -22249,7 +22249,7 @@
         <v>19826</v>
       </c>
       <c r="B125" t="n">
-        <v>148934</v>
+        <v>180392</v>
       </c>
       <c r="C125" t="s">
         <v>1062</v>
@@ -22324,7 +22324,7 @@
         <v>19826</v>
       </c>
       <c r="B126" t="n">
-        <v>148935</v>
+        <v>180393</v>
       </c>
       <c r="C126" t="s">
         <v>1071</v>
@@ -22395,7 +22395,7 @@
         <v>19826</v>
       </c>
       <c r="B127" t="n">
-        <v>148936</v>
+        <v>180394</v>
       </c>
       <c r="C127" t="s">
         <v>1081</v>
@@ -22466,7 +22466,7 @@
         <v>19826</v>
       </c>
       <c r="B128" t="n">
-        <v>148937</v>
+        <v>180395</v>
       </c>
       <c r="C128" t="s">
         <v>1090</v>
@@ -22531,7 +22531,7 @@
         <v>19826</v>
       </c>
       <c r="B129" t="n">
-        <v>148938</v>
+        <v>180396</v>
       </c>
       <c r="C129" t="s">
         <v>1099</v>
@@ -22596,7 +22596,7 @@
         <v>19826</v>
       </c>
       <c r="B130" t="n">
-        <v>148939</v>
+        <v>180397</v>
       </c>
       <c r="C130" t="s">
         <v>1105</v>
@@ -22811,7 +22811,7 @@
         <v>19826</v>
       </c>
       <c r="B133" t="n">
-        <v>148940</v>
+        <v>180398</v>
       </c>
       <c r="C133" t="s">
         <v>1127</v>
@@ -22876,7 +22876,7 @@
         <v>19826</v>
       </c>
       <c r="B134" t="n">
-        <v>148941</v>
+        <v>180399</v>
       </c>
       <c r="C134" t="s">
         <v>1134</v>
@@ -23022,7 +23022,7 @@
         <v>19826</v>
       </c>
       <c r="B136" t="n">
-        <v>148942</v>
+        <v>180400</v>
       </c>
       <c r="C136" t="s">
         <v>1150</v>
@@ -23156,7 +23156,7 @@
         <v>19826</v>
       </c>
       <c r="B138" t="n">
-        <v>148943</v>
+        <v>180401</v>
       </c>
       <c r="C138" t="s">
         <v>1168</v>
@@ -23227,7 +23227,7 @@
         <v>19826</v>
       </c>
       <c r="B139" t="n">
-        <v>148944</v>
+        <v>180402</v>
       </c>
       <c r="C139" t="s">
         <v>1177</v>
@@ -23298,7 +23298,7 @@
         <v>19826</v>
       </c>
       <c r="B140" t="n">
-        <v>148945</v>
+        <v>180403</v>
       </c>
       <c r="C140" t="s">
         <v>1186</v>
@@ -23442,7 +23442,7 @@
         <v>19826</v>
       </c>
       <c r="B142" t="n">
-        <v>148946</v>
+        <v>180404</v>
       </c>
       <c r="C142" t="s">
         <v>1204</v>
@@ -23582,7 +23582,7 @@
         <v>19826</v>
       </c>
       <c r="B144" t="n">
-        <v>148947</v>
+        <v>180405</v>
       </c>
       <c r="C144" t="s">
         <v>1222</v>
@@ -23651,7 +23651,7 @@
         <v>19826</v>
       </c>
       <c r="B145" t="n">
-        <v>148948</v>
+        <v>180406</v>
       </c>
       <c r="C145" t="s">
         <v>1229</v>
@@ -23856,7 +23856,7 @@
         <v>19826</v>
       </c>
       <c r="B148" t="n">
-        <v>148949</v>
+        <v>180407</v>
       </c>
       <c r="C148" t="s">
         <v>1257</v>
@@ -23927,7 +23927,7 @@
         <v>19826</v>
       </c>
       <c r="B149" t="n">
-        <v>148950</v>
+        <v>180408</v>
       </c>
       <c r="C149" t="s">
         <v>1266</v>
@@ -23996,7 +23996,7 @@
         <v>19826</v>
       </c>
       <c r="B150" t="n">
-        <v>148951</v>
+        <v>180409</v>
       </c>
       <c r="C150" t="s">
         <v>1275</v>
@@ -24065,7 +24065,7 @@
         <v>19826</v>
       </c>
       <c r="B151" t="n">
-        <v>148952</v>
+        <v>180410</v>
       </c>
       <c r="C151" t="s">
         <v>1282</v>
@@ -24136,7 +24136,7 @@
         <v>19826</v>
       </c>
       <c r="B152" t="n">
-        <v>148953</v>
+        <v>180411</v>
       </c>
       <c r="C152" t="s">
         <v>1289</v>
@@ -24341,7 +24341,7 @@
         <v>19826</v>
       </c>
       <c r="B155" t="n">
-        <v>148954</v>
+        <v>180412</v>
       </c>
       <c r="C155" t="s">
         <v>1314</v>
@@ -24481,7 +24481,7 @@
         <v>19826</v>
       </c>
       <c r="B157" t="n">
-        <v>148955</v>
+        <v>180413</v>
       </c>
       <c r="C157" t="s">
         <v>1330</v>
@@ -24552,7 +24552,7 @@
         <v>19826</v>
       </c>
       <c r="B158" t="n">
-        <v>148956</v>
+        <v>180414</v>
       </c>
       <c r="C158" t="s">
         <v>1337</v>
@@ -24621,7 +24621,7 @@
         <v>19826</v>
       </c>
       <c r="B159" t="n">
-        <v>148957</v>
+        <v>180415</v>
       </c>
       <c r="C159" t="s">
         <v>1347</v>
@@ -24771,7 +24771,7 @@
         <v>19826</v>
       </c>
       <c r="B161" t="n">
-        <v>148958</v>
+        <v>180416</v>
       </c>
       <c r="C161" t="s">
         <v>1360</v>
@@ -24846,7 +24846,7 @@
         <v>19826</v>
       </c>
       <c r="B162" t="n">
-        <v>148959</v>
+        <v>180417</v>
       </c>
       <c r="C162" t="s">
         <v>1369</v>
@@ -24917,7 +24917,7 @@
         <v>19826</v>
       </c>
       <c r="B163" t="n">
-        <v>148960</v>
+        <v>180418</v>
       </c>
       <c r="C163" t="s">
         <v>1376</v>
@@ -24992,7 +24992,7 @@
         <v>19826</v>
       </c>
       <c r="B164" t="n">
-        <v>148961</v>
+        <v>180419</v>
       </c>
       <c r="C164" t="s">
         <v>1385</v>
@@ -25067,7 +25067,7 @@
         <v>19826</v>
       </c>
       <c r="B165" t="n">
-        <v>148962</v>
+        <v>180420</v>
       </c>
       <c r="C165" t="s">
         <v>1395</v>
@@ -25203,7 +25203,7 @@
         <v>19826</v>
       </c>
       <c r="B167" t="n">
-        <v>148963</v>
+        <v>180421</v>
       </c>
       <c r="C167" t="s">
         <v>1413</v>
@@ -25268,7 +25268,7 @@
         <v>19826</v>
       </c>
       <c r="B168" t="n">
-        <v>148964</v>
+        <v>180422</v>
       </c>
       <c r="C168" t="s">
         <v>1422</v>
@@ -25337,7 +25337,7 @@
         <v>19826</v>
       </c>
       <c r="B169" t="n">
-        <v>148965</v>
+        <v>180423</v>
       </c>
       <c r="C169" t="s">
         <v>1428</v>
@@ -25408,7 +25408,7 @@
         <v>19826</v>
       </c>
       <c r="B170" t="n">
-        <v>148966</v>
+        <v>180424</v>
       </c>
       <c r="C170" t="s">
         <v>1438</v>
@@ -25477,7 +25477,7 @@
         <v>19826</v>
       </c>
       <c r="B171" t="n">
-        <v>148967</v>
+        <v>180425</v>
       </c>
       <c r="C171" t="s">
         <v>1447</v>
@@ -25552,7 +25552,7 @@
         <v>19826</v>
       </c>
       <c r="B172" t="n">
-        <v>148968</v>
+        <v>180426</v>
       </c>
       <c r="C172" t="s">
         <v>1454</v>
@@ -25617,7 +25617,7 @@
         <v>19826</v>
       </c>
       <c r="B173" t="n">
-        <v>148969</v>
+        <v>180427</v>
       </c>
       <c r="C173" t="s">
         <v>1463</v>
@@ -25751,7 +25751,7 @@
         <v>19826</v>
       </c>
       <c r="B175" t="n">
-        <v>148970</v>
+        <v>180428</v>
       </c>
       <c r="C175" t="s">
         <v>1482</v>
@@ -25958,7 +25958,7 @@
         <v>19826</v>
       </c>
       <c r="B178" t="n">
-        <v>148971</v>
+        <v>180429</v>
       </c>
       <c r="C178" t="s">
         <v>1506</v>
@@ -26029,7 +26029,7 @@
         <v>19826</v>
       </c>
       <c r="B179" t="n">
-        <v>148972</v>
+        <v>180430</v>
       </c>
       <c r="C179" t="s">
         <v>1514</v>
@@ -26100,7 +26100,7 @@
         <v>19826</v>
       </c>
       <c r="B180" t="n">
-        <v>148973</v>
+        <v>180431</v>
       </c>
       <c r="C180" t="s">
         <v>1523</v>
@@ -26246,7 +26246,7 @@
         <v>19826</v>
       </c>
       <c r="B182" t="n">
-        <v>148974</v>
+        <v>180432</v>
       </c>
       <c r="C182" t="s">
         <v>1540</v>
@@ -26534,7 +26534,7 @@
         <v>19826</v>
       </c>
       <c r="B186" t="n">
-        <v>148975</v>
+        <v>180433</v>
       </c>
       <c r="C186" t="s">
         <v>1572</v>
@@ -26684,7 +26684,7 @@
         <v>19826</v>
       </c>
       <c r="B188" t="n">
-        <v>148976</v>
+        <v>180434</v>
       </c>
       <c r="C188" t="s">
         <v>1586</v>
@@ -26755,7 +26755,7 @@
         <v>19826</v>
       </c>
       <c r="B189" t="n">
-        <v>148977</v>
+        <v>180435</v>
       </c>
       <c r="C189" t="s">
         <v>1595</v>
@@ -26830,7 +26830,7 @@
         <v>19826</v>
       </c>
       <c r="B190" t="n">
-        <v>148978</v>
+        <v>180436</v>
       </c>
       <c r="C190" t="s">
         <v>1601</v>
@@ -26901,7 +26901,7 @@
         <v>19826</v>
       </c>
       <c r="B191" t="n">
-        <v>148979</v>
+        <v>180437</v>
       </c>
       <c r="C191" t="s">
         <v>1609</v>
@@ -26966,7 +26966,7 @@
         <v>19826</v>
       </c>
       <c r="B192" t="n">
-        <v>148980</v>
+        <v>180438</v>
       </c>
       <c r="C192" t="s">
         <v>1618</v>
@@ -27106,7 +27106,7 @@
         <v>19826</v>
       </c>
       <c r="B194" t="n">
-        <v>148981</v>
+        <v>180439</v>
       </c>
       <c r="C194" t="s">
         <v>1636</v>
@@ -27167,7 +27167,7 @@
         <v>19826</v>
       </c>
       <c r="B195" t="n">
-        <v>148982</v>
+        <v>180440</v>
       </c>
       <c r="C195" t="s">
         <v>1645</v>
@@ -27242,7 +27242,7 @@
         <v>19826</v>
       </c>
       <c r="B196" t="n">
-        <v>148983</v>
+        <v>180441</v>
       </c>
       <c r="C196" t="s">
         <v>1654</v>
@@ -27313,7 +27313,7 @@
         <v>19826</v>
       </c>
       <c r="B197" t="n">
-        <v>148984</v>
+        <v>180442</v>
       </c>
       <c r="C197" t="s">
         <v>1661</v>
@@ -27384,7 +27384,7 @@
         <v>19826</v>
       </c>
       <c r="B198" t="n">
-        <v>148985</v>
+        <v>180443</v>
       </c>
       <c r="C198" t="s">
         <v>1669</v>
@@ -27534,7 +27534,7 @@
         <v>19826</v>
       </c>
       <c r="B200" t="n">
-        <v>148986</v>
+        <v>180444</v>
       </c>
       <c r="C200" t="s">
         <v>1684</v>
@@ -27603,7 +27603,7 @@
         <v>19826</v>
       </c>
       <c r="B201" t="n">
-        <v>148987</v>
+        <v>180445</v>
       </c>
       <c r="C201" t="s">
         <v>1692</v>
@@ -27678,7 +27678,7 @@
         <v>19826</v>
       </c>
       <c r="B202" t="n">
-        <v>148988</v>
+        <v>180446</v>
       </c>
       <c r="C202" t="s">
         <v>1701</v>
@@ -27743,7 +27743,7 @@
         <v>19826</v>
       </c>
       <c r="B203" t="n">
-        <v>148989</v>
+        <v>180447</v>
       </c>
       <c r="C203" t="s">
         <v>1710</v>
@@ -27818,7 +27818,7 @@
         <v>19826</v>
       </c>
       <c r="B204" t="n">
-        <v>148990</v>
+        <v>180448</v>
       </c>
       <c r="C204" t="s">
         <v>1717</v>
@@ -28025,7 +28025,7 @@
         <v>19826</v>
       </c>
       <c r="B207" t="n">
-        <v>148991</v>
+        <v>180449</v>
       </c>
       <c r="C207" t="s">
         <v>1741</v>
@@ -28165,7 +28165,7 @@
         <v>19826</v>
       </c>
       <c r="B209" t="n">
-        <v>148992</v>
+        <v>180450</v>
       </c>
       <c r="C209" t="s">
         <v>1759</v>
@@ -28236,7 +28236,7 @@
         <v>19826</v>
       </c>
       <c r="B210" t="n">
-        <v>148993</v>
+        <v>180451</v>
       </c>
       <c r="C210" t="s">
         <v>1768</v>
@@ -28301,7 +28301,7 @@
         <v>19826</v>
       </c>
       <c r="B211" t="n">
-        <v>148994</v>
+        <v>180452</v>
       </c>
       <c r="C211" t="s">
         <v>1775</v>
@@ -28366,7 +28366,7 @@
         <v>19826</v>
       </c>
       <c r="B212" t="n">
-        <v>148995</v>
+        <v>180453</v>
       </c>
       <c r="C212" t="s">
         <v>1781</v>
@@ -28591,7 +28591,7 @@
         <v>19826</v>
       </c>
       <c r="B215" t="n">
-        <v>148996</v>
+        <v>180454</v>
       </c>
       <c r="C215" t="s">
         <v>1808</v>
@@ -28656,7 +28656,7 @@
         <v>19826</v>
       </c>
       <c r="B216" t="n">
-        <v>148997</v>
+        <v>180455</v>
       </c>
       <c r="C216" t="s">
         <v>1817</v>
@@ -28721,7 +28721,7 @@
         <v>19826</v>
       </c>
       <c r="B217" t="n">
-        <v>148998</v>
+        <v>180456</v>
       </c>
       <c r="C217" t="s">
         <v>1826</v>
@@ -28796,7 +28796,7 @@
         <v>19826</v>
       </c>
       <c r="B218" t="n">
-        <v>148999</v>
+        <v>180457</v>
       </c>
       <c r="C218" t="s">
         <v>1833</v>
@@ -28946,7 +28946,7 @@
         <v>19826</v>
       </c>
       <c r="B220" t="n">
-        <v>149000</v>
+        <v>180458</v>
       </c>
       <c r="C220" t="s">
         <v>1848</v>
@@ -29019,7 +29019,7 @@
         <v>19826</v>
       </c>
       <c r="B221" t="n">
-        <v>149001</v>
+        <v>180459</v>
       </c>
       <c r="C221" t="s">
         <v>1857</v>
@@ -29169,7 +29169,7 @@
         <v>19826</v>
       </c>
       <c r="B223" t="n">
-        <v>149002</v>
+        <v>180460</v>
       </c>
       <c r="C223" t="s">
         <v>1873</v>
@@ -29313,7 +29313,7 @@
         <v>19826</v>
       </c>
       <c r="B225" t="n">
-        <v>149003</v>
+        <v>180461</v>
       </c>
       <c r="C225" t="s">
         <v>1888</v>
@@ -29388,7 +29388,7 @@
         <v>19826</v>
       </c>
       <c r="B226" t="n">
-        <v>149004</v>
+        <v>180462</v>
       </c>
       <c r="C226" t="s">
         <v>1896</v>
@@ -29457,7 +29457,7 @@
         <v>19826</v>
       </c>
       <c r="B227" t="n">
-        <v>149005</v>
+        <v>180463</v>
       </c>
       <c r="C227" t="s">
         <v>1905</v>
@@ -29526,7 +29526,7 @@
         <v>19826</v>
       </c>
       <c r="B228" t="n">
-        <v>149006</v>
+        <v>180464</v>
       </c>
       <c r="C228" t="s">
         <v>1913</v>
@@ -29601,7 +29601,7 @@
         <v>19826</v>
       </c>
       <c r="B229" t="n">
-        <v>149007</v>
+        <v>180465</v>
       </c>
       <c r="C229" t="s">
         <v>1919</v>
@@ -29672,7 +29672,7 @@
         <v>19826</v>
       </c>
       <c r="B230" t="n">
-        <v>149008</v>
+        <v>180466</v>
       </c>
       <c r="C230" t="s">
         <v>1927</v>
@@ -29743,7 +29743,7 @@
         <v>19826</v>
       </c>
       <c r="B231" t="n">
-        <v>149009</v>
+        <v>180467</v>
       </c>
       <c r="C231" t="s">
         <v>1934</v>
@@ -29881,7 +29881,7 @@
         <v>19826</v>
       </c>
       <c r="B233" t="n">
-        <v>149010</v>
+        <v>180468</v>
       </c>
       <c r="C233" t="s">
         <v>1949</v>
@@ -29952,7 +29952,7 @@
         <v>19826</v>
       </c>
       <c r="B234" t="n">
-        <v>149011</v>
+        <v>180469</v>
       </c>
       <c r="C234" t="s">
         <v>1956</v>
@@ -30021,7 +30021,7 @@
         <v>19826</v>
       </c>
       <c r="B235" t="n">
-        <v>149012</v>
+        <v>180470</v>
       </c>
       <c r="C235" t="s">
         <v>1963</v>
@@ -30303,7 +30303,7 @@
         <v>19826</v>
       </c>
       <c r="B239" t="n">
-        <v>149013</v>
+        <v>180471</v>
       </c>
       <c r="C239" t="s">
         <v>1989</v>
@@ -30439,7 +30439,7 @@
         <v>19826</v>
       </c>
       <c r="B241" t="n">
-        <v>149014</v>
+        <v>180472</v>
       </c>
       <c r="C241" t="s">
         <v>2004</v>
@@ -30508,7 +30508,7 @@
         <v>19826</v>
       </c>
       <c r="B242" t="n">
-        <v>149015</v>
+        <v>180473</v>
       </c>
       <c r="C242" t="s">
         <v>2011</v>
@@ -30579,7 +30579,7 @@
         <v>19826</v>
       </c>
       <c r="B243" t="n">
-        <v>149016</v>
+        <v>180474</v>
       </c>
       <c r="C243" t="s">
         <v>2019</v>
@@ -30715,7 +30715,7 @@
         <v>19826</v>
       </c>
       <c r="B245" t="n">
-        <v>149017</v>
+        <v>180475</v>
       </c>
       <c r="C245" t="s">
         <v>2031</v>
@@ -30914,7 +30914,7 @@
         <v>19826</v>
       </c>
       <c r="B248" t="n">
-        <v>149018</v>
+        <v>180476</v>
       </c>
       <c r="C248" t="s">
         <v>2050</v>
@@ -30985,7 +30985,7 @@
         <v>19826</v>
       </c>
       <c r="B249" t="n">
-        <v>149019</v>
+        <v>180477</v>
       </c>
       <c r="C249" t="s">
         <v>2057</v>
@@ -31259,7 +31259,7 @@
         <v>19826</v>
       </c>
       <c r="B253" t="n">
-        <v>149020</v>
+        <v>180478</v>
       </c>
       <c r="C253" t="s">
         <v>2079</v>
@@ -31324,7 +31324,7 @@
         <v>19826</v>
       </c>
       <c r="B254" t="n">
-        <v>149021</v>
+        <v>180479</v>
       </c>
       <c r="C254" t="s">
         <v>2086</v>
@@ -31466,7 +31466,7 @@
         <v>19826</v>
       </c>
       <c r="B256" t="n">
-        <v>149022</v>
+        <v>180480</v>
       </c>
       <c r="C256" t="s">
         <v>2099</v>
@@ -31527,7 +31527,7 @@
         <v>19826</v>
       </c>
       <c r="B257" t="n">
-        <v>149023</v>
+        <v>180481</v>
       </c>
       <c r="C257" t="s">
         <v>2104</v>
@@ -31588,7 +31588,7 @@
         <v>19826</v>
       </c>
       <c r="B258" t="n">
-        <v>149024</v>
+        <v>180482</v>
       </c>
       <c r="C258" t="s">
         <v>2111</v>
@@ -31649,7 +31649,7 @@
         <v>19826</v>
       </c>
       <c r="B259" t="n">
-        <v>149025</v>
+        <v>180483</v>
       </c>
       <c r="C259" t="s">
         <v>2117</v>
@@ -31720,7 +31720,7 @@
         <v>19826</v>
       </c>
       <c r="B260" t="n">
-        <v>149026</v>
+        <v>180484</v>
       </c>
       <c r="C260" t="s">
         <v>2123</v>
@@ -31862,7 +31862,7 @@
         <v>19826</v>
       </c>
       <c r="B262" t="n">
-        <v>149027</v>
+        <v>180485</v>
       </c>
       <c r="C262" t="s">
         <v>2136</v>
@@ -31923,7 +31923,7 @@
         <v>19826</v>
       </c>
       <c r="B263" t="n">
-        <v>149028</v>
+        <v>180486</v>
       </c>
       <c r="C263" t="s">
         <v>2141</v>
@@ -32122,7 +32122,7 @@
         <v>19826</v>
       </c>
       <c r="B266" t="n">
-        <v>149029</v>
+        <v>180487</v>
       </c>
       <c r="C266" t="s">
         <v>2157</v>
@@ -32264,7 +32264,7 @@
         <v>19826</v>
       </c>
       <c r="B268" t="n">
-        <v>149030</v>
+        <v>180488</v>
       </c>
       <c r="C268" t="s">
         <v>2169</v>
@@ -32382,7 +32382,7 @@
         <v>19826</v>
       </c>
       <c r="B270" t="n">
-        <v>149031</v>
+        <v>180489</v>
       </c>
       <c r="C270" t="s">
         <v>2182</v>
@@ -32518,7 +32518,7 @@
         <v>19826</v>
       </c>
       <c r="B272" t="n">
-        <v>149032</v>
+        <v>180490</v>
       </c>
       <c r="C272" t="s">
         <v>2195</v>
@@ -32585,7 +32585,7 @@
         <v>19826</v>
       </c>
       <c r="B273" t="n">
-        <v>149033</v>
+        <v>180491</v>
       </c>
       <c r="C273" t="s">
         <v>2202</v>
@@ -32652,7 +32652,7 @@
         <v>19826</v>
       </c>
       <c r="B274" t="n">
-        <v>149034</v>
+        <v>180492</v>
       </c>
       <c r="C274" t="s">
         <v>2209</v>
@@ -32780,7 +32780,7 @@
         <v>19826</v>
       </c>
       <c r="B276" t="n">
-        <v>149035</v>
+        <v>180493</v>
       </c>
       <c r="C276" t="s">
         <v>2222</v>
@@ -32851,7 +32851,7 @@
         <v>19826</v>
       </c>
       <c r="B277" t="n">
-        <v>149036</v>
+        <v>180494</v>
       </c>
       <c r="C277" t="s">
         <v>2228</v>
@@ -32983,7 +32983,7 @@
         <v>19826</v>
       </c>
       <c r="B279" t="n">
-        <v>149037</v>
+        <v>180495</v>
       </c>
       <c r="C279" t="s">
         <v>2241</v>
@@ -33182,7 +33182,7 @@
         <v>19826</v>
       </c>
       <c r="B282" t="n">
-        <v>149038</v>
+        <v>180496</v>
       </c>
       <c r="C282" t="s">
         <v>2260</v>
@@ -33385,7 +33385,7 @@
         <v>19826</v>
       </c>
       <c r="B285" t="n">
-        <v>149039</v>
+        <v>180497</v>
       </c>
       <c r="C285" t="s">
         <v>2281</v>
@@ -33523,7 +33523,7 @@
         <v>19826</v>
       </c>
       <c r="B287" t="n">
-        <v>149040</v>
+        <v>180498</v>
       </c>
       <c r="C287" t="s">
         <v>2294</v>
@@ -33594,7 +33594,7 @@
         <v>19826</v>
       </c>
       <c r="B288" t="n">
-        <v>149041</v>
+        <v>180499</v>
       </c>
       <c r="C288" t="s">
         <v>2300</v>
@@ -33726,7 +33726,7 @@
         <v>19826</v>
       </c>
       <c r="B290" t="n">
-        <v>149042</v>
+        <v>180500</v>
       </c>
       <c r="C290" t="s">
         <v>2312</v>
@@ -33793,7 +33793,7 @@
         <v>19826</v>
       </c>
       <c r="B291" t="n">
-        <v>149043</v>
+        <v>180501</v>
       </c>
       <c r="C291" t="s">
         <v>2319</v>
@@ -33854,7 +33854,7 @@
         <v>19826</v>
       </c>
       <c r="B292" t="n">
-        <v>149044</v>
+        <v>180502</v>
       </c>
       <c r="C292" t="s">
         <v>2325</v>
@@ -33925,7 +33925,7 @@
         <v>19826</v>
       </c>
       <c r="B293" t="n">
-        <v>149045</v>
+        <v>180503</v>
       </c>
       <c r="C293" t="s">
         <v>2330</v>
@@ -33992,7 +33992,7 @@
         <v>19826</v>
       </c>
       <c r="B294" t="n">
-        <v>149046</v>
+        <v>180504</v>
       </c>
       <c r="C294" t="s">
         <v>2336</v>
@@ -34063,7 +34063,7 @@
         <v>19826</v>
       </c>
       <c r="B295" t="n">
-        <v>149047</v>
+        <v>180505</v>
       </c>
       <c r="C295" t="s">
         <v>2341</v>
@@ -34128,7 +34128,7 @@
         <v>19826</v>
       </c>
       <c r="B296" t="n">
-        <v>149048</v>
+        <v>180506</v>
       </c>
       <c r="C296" t="s">
         <v>2349</v>
@@ -34254,7 +34254,7 @@
         <v>19826</v>
       </c>
       <c r="B298" t="n">
-        <v>149049</v>
+        <v>180507</v>
       </c>
       <c r="C298" t="s">
         <v>2361</v>
@@ -34390,7 +34390,7 @@
         <v>19826</v>
       </c>
       <c r="B300" t="n">
-        <v>149050</v>
+        <v>180508</v>
       </c>
       <c r="C300" t="s">
         <v>2373</v>
@@ -34457,7 +34457,7 @@
         <v>19826</v>
       </c>
       <c r="B301" t="n">
-        <v>149051</v>
+        <v>180509</v>
       </c>
       <c r="C301" t="s">
         <v>2378</v>
@@ -34524,7 +34524,7 @@
         <v>19826</v>
       </c>
       <c r="B302" t="n">
-        <v>149052</v>
+        <v>180510</v>
       </c>
       <c r="C302" t="s">
         <v>2385</v>
@@ -34595,7 +34595,7 @@
         <v>19826</v>
       </c>
       <c r="B303" t="n">
-        <v>149053</v>
+        <v>180511</v>
       </c>
       <c r="C303" t="s">
         <v>2391</v>
@@ -34660,7 +34660,7 @@
         <v>19826</v>
       </c>
       <c r="B304" t="n">
-        <v>149054</v>
+        <v>180512</v>
       </c>
       <c r="C304" t="s">
         <v>2398</v>
@@ -34725,7 +34725,7 @@
         <v>19826</v>
       </c>
       <c r="B305" t="n">
-        <v>149055</v>
+        <v>180513</v>
       </c>
       <c r="C305" t="s">
         <v>2405</v>
@@ -34790,7 +34790,7 @@
         <v>19826</v>
       </c>
       <c r="B306" t="n">
-        <v>149056</v>
+        <v>180514</v>
       </c>
       <c r="C306" t="s">
         <v>2413</v>
@@ -34993,7 +34993,7 @@
         <v>19826</v>
       </c>
       <c r="B309" t="n">
-        <v>149057</v>
+        <v>180515</v>
       </c>
       <c r="C309" t="s">
         <v>2433</v>
@@ -35186,7 +35186,7 @@
         <v>19826</v>
       </c>
       <c r="B312" t="n">
-        <v>149058</v>
+        <v>180516</v>
       </c>
       <c r="C312" t="s">
         <v>2452</v>
@@ -35383,7 +35383,7 @@
         <v>19826</v>
       </c>
       <c r="B315" t="n">
-        <v>149059</v>
+        <v>180517</v>
       </c>
       <c r="C315" t="s">
         <v>2469</v>
@@ -35519,7 +35519,7 @@
         <v>19826</v>
       </c>
       <c r="B317" t="n">
-        <v>149060</v>
+        <v>180518</v>
       </c>
       <c r="C317" t="s">
         <v>2481</v>
@@ -35643,7 +35643,7 @@
         <v>19826</v>
       </c>
       <c r="B319" t="n">
-        <v>149061</v>
+        <v>180519</v>
       </c>
       <c r="C319" t="s">
         <v>2493</v>
@@ -35704,7 +35704,7 @@
         <v>19826</v>
       </c>
       <c r="B320" t="n">
-        <v>149062</v>
+        <v>180520</v>
       </c>
       <c r="C320" t="s">
         <v>2499</v>
@@ -35972,7 +35972,7 @@
         <v>19826</v>
       </c>
       <c r="B324" t="n">
-        <v>149063</v>
+        <v>180521</v>
       </c>
       <c r="C324" t="s">
         <v>2522</v>
@@ -36043,7 +36043,7 @@
         <v>19826</v>
       </c>
       <c r="B325" t="n">
-        <v>149064</v>
+        <v>180522</v>
       </c>
       <c r="C325" t="s">
         <v>2528</v>
@@ -36181,7 +36181,7 @@
         <v>19826</v>
       </c>
       <c r="B327" t="n">
-        <v>149065</v>
+        <v>180523</v>
       </c>
       <c r="C327" t="s">
         <v>2541</v>
@@ -36242,7 +36242,7 @@
         <v>19826</v>
       </c>
       <c r="B328" t="n">
-        <v>149066</v>
+        <v>180524</v>
       </c>
       <c r="C328" t="s">
         <v>2547</v>
@@ -36307,7 +36307,7 @@
         <v>19826</v>
       </c>
       <c r="B329" t="n">
-        <v>149067</v>
+        <v>180525</v>
       </c>
       <c r="C329" t="s">
         <v>2556</v>
@@ -36453,7 +36453,7 @@
         <v>19826</v>
       </c>
       <c r="B331" t="n">
-        <v>149068</v>
+        <v>180526</v>
       </c>
       <c r="C331" t="s">
         <v>2572</v>
@@ -36522,7 +36522,7 @@
         <v>19826</v>
       </c>
       <c r="B332" t="n">
-        <v>149069</v>
+        <v>180527</v>
       </c>
       <c r="C332" t="s">
         <v>2578</v>
@@ -36648,7 +36648,7 @@
         <v>19826</v>
       </c>
       <c r="B334" t="n">
-        <v>149070</v>
+        <v>180528</v>
       </c>
       <c r="C334" t="s">
         <v>2590</v>
@@ -36713,7 +36713,7 @@
         <v>19826</v>
       </c>
       <c r="B335" t="n">
-        <v>149071</v>
+        <v>180529</v>
       </c>
       <c r="C335" t="s">
         <v>2597</v>
@@ -36780,7 +36780,7 @@
         <v>19826</v>
       </c>
       <c r="B336" t="n">
-        <v>149072</v>
+        <v>180530</v>
       </c>
       <c r="C336" t="s">
         <v>2603</v>
@@ -36847,7 +36847,7 @@
         <v>19826</v>
       </c>
       <c r="B337" t="n">
-        <v>149073</v>
+        <v>180531</v>
       </c>
       <c r="C337" t="s">
         <v>2610</v>
@@ -36975,7 +36975,7 @@
         <v>19826</v>
       </c>
       <c r="B339" t="n">
-        <v>149074</v>
+        <v>180532</v>
       </c>
       <c r="C339" t="s">
         <v>2626</v>
@@ -37046,7 +37046,7 @@
         <v>19826</v>
       </c>
       <c r="B340" t="n">
-        <v>149075</v>
+        <v>180533</v>
       </c>
       <c r="C340" t="s">
         <v>2631</v>
@@ -37117,7 +37117,7 @@
         <v>19826</v>
       </c>
       <c r="B341" t="n">
-        <v>149076</v>
+        <v>180534</v>
       </c>
       <c r="C341" t="s">
         <v>2636</v>
@@ -37184,7 +37184,7 @@
         <v>19826</v>
       </c>
       <c r="B342" t="n">
-        <v>149077</v>
+        <v>180535</v>
       </c>
       <c r="C342" t="s">
         <v>2643</v>
@@ -37255,7 +37255,7 @@
         <v>19826</v>
       </c>
       <c r="B343" t="n">
-        <v>149078</v>
+        <v>180536</v>
       </c>
       <c r="C343" t="s">
         <v>2649</v>
@@ -37322,7 +37322,7 @@
         <v>19826</v>
       </c>
       <c r="B344" t="n">
-        <v>149079</v>
+        <v>180537</v>
       </c>
       <c r="C344" t="s">
         <v>2656</v>
@@ -37389,7 +37389,7 @@
         <v>19826</v>
       </c>
       <c r="B345" t="n">
-        <v>149080</v>
+        <v>180538</v>
       </c>
       <c r="C345" t="s">
         <v>2663</v>
@@ -37460,7 +37460,7 @@
         <v>19826</v>
       </c>
       <c r="B346" t="n">
-        <v>149081</v>
+        <v>180539</v>
       </c>
       <c r="C346" t="s">
         <v>2668</v>
@@ -37527,7 +37527,7 @@
         <v>19826</v>
       </c>
       <c r="B347" t="n">
-        <v>149082</v>
+        <v>180540</v>
       </c>
       <c r="C347" t="s">
         <v>2674</v>
@@ -37592,7 +37592,7 @@
         <v>19826</v>
       </c>
       <c r="B348" t="n">
-        <v>149083</v>
+        <v>180541</v>
       </c>
       <c r="C348" t="s">
         <v>2681</v>
@@ -37797,7 +37797,7 @@
         <v>19826</v>
       </c>
       <c r="B351" t="n">
-        <v>149084</v>
+        <v>180542</v>
       </c>
       <c r="C351" t="s">
         <v>2702</v>
@@ -37858,7 +37858,7 @@
         <v>19826</v>
       </c>
       <c r="B352" t="n">
-        <v>149085</v>
+        <v>180543</v>
       </c>
       <c r="C352" t="s">
         <v>2708</v>
@@ -38150,7 +38150,7 @@
         <v>19826</v>
       </c>
       <c r="B356" t="n">
-        <v>149086</v>
+        <v>180544</v>
       </c>
       <c r="C356" t="s">
         <v>2737</v>
@@ -38292,7 +38292,7 @@
         <v>19826</v>
       </c>
       <c r="B358" t="n">
-        <v>149087</v>
+        <v>180545</v>
       </c>
       <c r="C358" t="s">
         <v>2752</v>
@@ -38367,7 +38367,7 @@
         <v>19826</v>
       </c>
       <c r="B359" t="n">
-        <v>149088</v>
+        <v>180546</v>
       </c>
       <c r="C359" t="s">
         <v>2759</v>
@@ -38442,7 +38442,7 @@
         <v>19826</v>
       </c>
       <c r="B360" t="n">
-        <v>149089</v>
+        <v>180547</v>
       </c>
       <c r="C360" t="s">
         <v>2768</v>
@@ -38503,7 +38503,7 @@
         <v>19826</v>
       </c>
       <c r="B361" t="n">
-        <v>149090</v>
+        <v>180548</v>
       </c>
       <c r="C361" t="s">
         <v>2775</v>
@@ -38574,7 +38574,7 @@
         <v>19826</v>
       </c>
       <c r="B362" t="n">
-        <v>149091</v>
+        <v>180549</v>
       </c>
       <c r="C362" t="s">
         <v>2782</v>
@@ -38645,7 +38645,7 @@
         <v>19826</v>
       </c>
       <c r="B363" t="n">
-        <v>149092</v>
+        <v>180550</v>
       </c>
       <c r="C363" t="s">
         <v>2788</v>
@@ -38720,7 +38720,7 @@
         <v>19826</v>
       </c>
       <c r="B364" t="n">
-        <v>149093</v>
+        <v>180551</v>
       </c>
       <c r="C364" t="s">
         <v>2797</v>
@@ -38795,7 +38795,7 @@
         <v>19826</v>
       </c>
       <c r="B365" t="n">
-        <v>149094</v>
+        <v>180552</v>
       </c>
       <c r="C365" t="s">
         <v>2804</v>
@@ -38860,7 +38860,7 @@
         <v>19826</v>
       </c>
       <c r="B366" t="n">
-        <v>149095</v>
+        <v>180553</v>
       </c>
       <c r="C366" t="s">
         <v>2813</v>
@@ -38931,7 +38931,7 @@
         <v>19826</v>
       </c>
       <c r="B367" t="n">
-        <v>149096</v>
+        <v>180554</v>
       </c>
       <c r="C367" t="s">
         <v>2819</v>
@@ -39002,7 +39002,7 @@
         <v>19826</v>
       </c>
       <c r="B368" t="n">
-        <v>149097</v>
+        <v>180555</v>
       </c>
       <c r="C368" t="s">
         <v>2825</v>
@@ -39077,7 +39077,7 @@
         <v>19826</v>
       </c>
       <c r="B369" t="n">
-        <v>149098</v>
+        <v>180556</v>
       </c>
       <c r="C369" t="s">
         <v>2834</v>
@@ -39152,7 +39152,7 @@
         <v>19826</v>
       </c>
       <c r="B370" t="n">
-        <v>149099</v>
+        <v>180557</v>
       </c>
       <c r="C370" t="s">
         <v>2843</v>
@@ -39227,7 +39227,7 @@
         <v>19826</v>
       </c>
       <c r="B371" t="n">
-        <v>149100</v>
+        <v>180558</v>
       </c>
       <c r="C371" t="s">
         <v>2850</v>
@@ -39302,7 +39302,7 @@
         <v>19826</v>
       </c>
       <c r="B372" t="n">
-        <v>149101</v>
+        <v>148959</v>
       </c>
       <c r="C372" t="s">
         <v>2859</v>
@@ -39367,7 +39367,7 @@
         <v>19826</v>
       </c>
       <c r="B373" t="n">
-        <v>149102</v>
+        <v>180559</v>
       </c>
       <c r="C373" t="s">
         <v>2868</v>
@@ -39442,7 +39442,7 @@
         <v>19826</v>
       </c>
       <c r="B374" t="n">
-        <v>149103</v>
+        <v>180560</v>
       </c>
       <c r="C374" t="s">
         <v>2876</v>
@@ -39513,7 +39513,7 @@
         <v>19826</v>
       </c>
       <c r="B375" t="n">
-        <v>149104</v>
+        <v>180561</v>
       </c>
       <c r="C375" t="s">
         <v>2883</v>
@@ -39645,7 +39645,7 @@
         <v>19826</v>
       </c>
       <c r="B377" t="n">
-        <v>149105</v>
+        <v>180562</v>
       </c>
       <c r="C377" t="s">
         <v>2896</v>
@@ -39787,7 +39787,7 @@
         <v>19826</v>
       </c>
       <c r="B379" t="n">
-        <v>149106</v>
+        <v>180563</v>
       </c>
       <c r="C379" t="s">
         <v>2910</v>
@@ -39858,7 +39858,7 @@
         <v>19826</v>
       </c>
       <c r="B380" t="n">
-        <v>149107</v>
+        <v>180564</v>
       </c>
       <c r="C380" t="s">
         <v>2916</v>
@@ -39929,7 +39929,7 @@
         <v>19826</v>
       </c>
       <c r="B381" t="n">
-        <v>149108</v>
+        <v>180565</v>
       </c>
       <c r="C381" t="s">
         <v>2922</v>
@@ -40000,7 +40000,7 @@
         <v>19826</v>
       </c>
       <c r="B382" t="n">
-        <v>149109</v>
+        <v>180566</v>
       </c>
       <c r="C382" t="s">
         <v>2927</v>
@@ -40071,7 +40071,7 @@
         <v>19826</v>
       </c>
       <c r="B383" t="n">
-        <v>149110</v>
+        <v>180567</v>
       </c>
       <c r="C383" t="s">
         <v>2933</v>
@@ -40142,7 +40142,7 @@
         <v>19826</v>
       </c>
       <c r="B384" t="n">
-        <v>149111</v>
+        <v>180568</v>
       </c>
       <c r="C384" t="s">
         <v>2940</v>
@@ -40213,7 +40213,7 @@
         <v>19826</v>
       </c>
       <c r="B385" t="n">
-        <v>149112</v>
+        <v>180569</v>
       </c>
       <c r="C385" t="s">
         <v>2946</v>
@@ -40497,7 +40497,7 @@
         <v>19826</v>
       </c>
       <c r="B389" t="n">
-        <v>149113</v>
+        <v>180570</v>
       </c>
       <c r="C389" t="s">
         <v>2972</v>
@@ -40568,7 +40568,7 @@
         <v>19826</v>
       </c>
       <c r="B390" t="n">
-        <v>149114</v>
+        <v>180571</v>
       </c>
       <c r="C390" t="s">
         <v>2979</v>
@@ -40639,7 +40639,7 @@
         <v>19826</v>
       </c>
       <c r="B391" t="n">
-        <v>149115</v>
+        <v>180572</v>
       </c>
       <c r="C391" t="s">
         <v>2986</v>
@@ -40781,7 +40781,7 @@
         <v>19826</v>
       </c>
       <c r="B393" t="n">
-        <v>149116</v>
+        <v>180573</v>
       </c>
       <c r="C393" t="s">
         <v>3000</v>
@@ -40852,7 +40852,7 @@
         <v>19826</v>
       </c>
       <c r="B394" t="n">
-        <v>149117</v>
+        <v>180574</v>
       </c>
       <c r="C394" t="s">
         <v>3008</v>
@@ -40923,7 +40923,7 @@
         <v>19826</v>
       </c>
       <c r="B395" t="n">
-        <v>149118</v>
+        <v>180575</v>
       </c>
       <c r="C395" t="s">
         <v>3014</v>
@@ -40994,7 +40994,7 @@
         <v>19826</v>
       </c>
       <c r="B396" t="n">
-        <v>149119</v>
+        <v>180576</v>
       </c>
       <c r="C396" t="s">
         <v>3020</v>
@@ -41136,7 +41136,7 @@
         <v>19826</v>
       </c>
       <c r="B398" t="n">
-        <v>149120</v>
+        <v>180577</v>
       </c>
       <c r="C398" t="s">
         <v>3032</v>
@@ -41276,7 +41276,7 @@
         <v>19826</v>
       </c>
       <c r="B400" t="n">
-        <v>149121</v>
+        <v>180578</v>
       </c>
       <c r="C400" t="s">
         <v>3044</v>
@@ -41347,7 +41347,7 @@
         <v>19826</v>
       </c>
       <c r="B401" t="n">
-        <v>149122</v>
+        <v>180579</v>
       </c>
       <c r="C401" t="s">
         <v>3050</v>
@@ -41418,7 +41418,7 @@
         <v>19826</v>
       </c>
       <c r="B402" t="n">
-        <v>149123</v>
+        <v>180580</v>
       </c>
       <c r="C402" t="s">
         <v>3056</v>
@@ -41489,7 +41489,7 @@
         <v>19826</v>
       </c>
       <c r="B403" t="n">
-        <v>149124</v>
+        <v>180581</v>
       </c>
       <c r="C403" t="s">
         <v>3063</v>
@@ -41560,7 +41560,7 @@
         <v>19826</v>
       </c>
       <c r="B404" t="n">
-        <v>149125</v>
+        <v>180582</v>
       </c>
       <c r="C404" t="s">
         <v>3069</v>
@@ -41631,7 +41631,7 @@
         <v>19826</v>
       </c>
       <c r="B405" t="n">
-        <v>149126</v>
+        <v>180583</v>
       </c>
       <c r="C405" t="s">
         <v>3075</v>
@@ -41773,7 +41773,7 @@
         <v>19826</v>
       </c>
       <c r="B407" t="n">
-        <v>149127</v>
+        <v>180584</v>
       </c>
       <c r="C407" t="s">
         <v>3086</v>
@@ -41915,7 +41915,7 @@
         <v>19826</v>
       </c>
       <c r="B409" t="n">
-        <v>149128</v>
+        <v>180585</v>
       </c>
       <c r="C409" t="s">
         <v>3099</v>
@@ -41982,7 +41982,7 @@
         <v>19826</v>
       </c>
       <c r="B410" t="n">
-        <v>149129</v>
+        <v>180586</v>
       </c>
       <c r="C410" t="s">
         <v>3105</v>
@@ -42053,7 +42053,7 @@
         <v>19826</v>
       </c>
       <c r="B411" t="n">
-        <v>149130</v>
+        <v>180587</v>
       </c>
       <c r="C411" t="s">
         <v>3111</v>
@@ -42124,7 +42124,7 @@
         <v>19826</v>
       </c>
       <c r="B412" t="n">
-        <v>149131</v>
+        <v>180588</v>
       </c>
       <c r="C412" t="s">
         <v>3117</v>
@@ -42266,7 +42266,7 @@
         <v>19826</v>
       </c>
       <c r="B414" t="n">
-        <v>149132</v>
+        <v>180589</v>
       </c>
       <c r="C414" t="s">
         <v>3131</v>
@@ -42327,7 +42327,7 @@
         <v>19826</v>
       </c>
       <c r="B415" t="n">
-        <v>149133</v>
+        <v>180590</v>
       </c>
       <c r="C415" t="s">
         <v>3137</v>
@@ -42398,7 +42398,7 @@
         <v>19826</v>
       </c>
       <c r="B416" t="n">
-        <v>149134</v>
+        <v>180591</v>
       </c>
       <c r="C416" t="s">
         <v>3142</v>
@@ -42469,7 +42469,7 @@
         <v>19826</v>
       </c>
       <c r="B417" t="n">
-        <v>149135</v>
+        <v>180592</v>
       </c>
       <c r="C417" t="s">
         <v>3149</v>
@@ -42530,7 +42530,7 @@
         <v>19826</v>
       </c>
       <c r="B418" t="n">
-        <v>149136</v>
+        <v>180593</v>
       </c>
       <c r="C418" t="s">
         <v>3155</v>
@@ -42601,7 +42601,7 @@
         <v>19826</v>
       </c>
       <c r="B419" t="n">
-        <v>149137</v>
+        <v>180594</v>
       </c>
       <c r="C419" t="s">
         <v>3160</v>
@@ -42751,7 +42751,7 @@
         <v>19826</v>
       </c>
       <c r="B421" t="n">
-        <v>149138</v>
+        <v>180595</v>
       </c>
       <c r="C421" t="s">
         <v>3179</v>
@@ -42826,7 +42826,7 @@
         <v>19826</v>
       </c>
       <c r="B422" t="n">
-        <v>149139</v>
+        <v>180596</v>
       </c>
       <c r="C422" t="s">
         <v>3187</v>
@@ -42901,7 +42901,7 @@
         <v>19826</v>
       </c>
       <c r="B423" t="n">
-        <v>149140</v>
+        <v>180597</v>
       </c>
       <c r="C423" t="s">
         <v>3194</v>
@@ -43047,7 +43047,7 @@
         <v>19826</v>
       </c>
       <c r="B425" t="n">
-        <v>149141</v>
+        <v>180598</v>
       </c>
       <c r="C425" t="s">
         <v>3208</v>
@@ -43118,7 +43118,7 @@
         <v>19826</v>
       </c>
       <c r="B426" t="n">
-        <v>149142</v>
+        <v>180599</v>
       </c>
       <c r="C426" t="s">
         <v>3213</v>
@@ -43180,7 +43180,7 @@
         <v>19826</v>
       </c>
       <c r="B427" t="n">
-        <v>149143</v>
+        <v>180600</v>
       </c>
       <c r="C427" t="s">
         <v>3216</v>
@@ -43249,7 +43249,7 @@
         <v>19826</v>
       </c>
       <c r="B428" t="n">
-        <v>149144</v>
+        <v>180601</v>
       </c>
       <c r="C428" t="s">
         <v>3223</v>
@@ -43320,7 +43320,7 @@
         <v>19826</v>
       </c>
       <c r="B429" t="n">
-        <v>149145</v>
+        <v>180602</v>
       </c>
       <c r="C429" t="s">
         <v>3229</v>
@@ -43458,7 +43458,7 @@
         <v>19826</v>
       </c>
       <c r="B431" t="n">
-        <v>149146</v>
+        <v>180603</v>
       </c>
       <c r="C431" t="s">
         <v>3242</v>
@@ -43529,7 +43529,7 @@
         <v>19826</v>
       </c>
       <c r="B432" t="n">
-        <v>149147</v>
+        <v>180604</v>
       </c>
       <c r="C432" t="s">
         <v>3250</v>
@@ -43600,7 +43600,7 @@
         <v>19826</v>
       </c>
       <c r="B433" t="n">
-        <v>149148</v>
+        <v>180605</v>
       </c>
       <c r="C433" t="s">
         <v>3257</v>
@@ -43671,7 +43671,7 @@
         <v>19826</v>
       </c>
       <c r="B434" t="n">
-        <v>149149</v>
+        <v>148961</v>
       </c>
       <c r="C434" t="s">
         <v>3263</v>
@@ -43742,7 +43742,7 @@
         <v>19826</v>
       </c>
       <c r="B435" t="n">
-        <v>149150</v>
+        <v>180606</v>
       </c>
       <c r="C435" t="s">
         <v>3269</v>
@@ -43811,7 +43811,7 @@
         <v>19826</v>
       </c>
       <c r="B436" t="n">
-        <v>149151</v>
+        <v>180607</v>
       </c>
       <c r="C436" t="s">
         <v>3276</v>
@@ -43882,7 +43882,7 @@
         <v>19826</v>
       </c>
       <c r="B437" t="n">
-        <v>149152</v>
+        <v>180608</v>
       </c>
       <c r="C437" t="s">
         <v>3283</v>
@@ -43949,7 +43949,7 @@
         <v>19826</v>
       </c>
       <c r="B438" t="n">
-        <v>149153</v>
+        <v>180609</v>
       </c>
       <c r="C438" t="s">
         <v>3289</v>
@@ -44020,7 +44020,7 @@
         <v>19826</v>
       </c>
       <c r="B439" t="n">
-        <v>149154</v>
+        <v>180610</v>
       </c>
       <c r="C439" t="s">
         <v>3295</v>
@@ -44089,7 +44089,7 @@
         <v>19826</v>
       </c>
       <c r="B440" t="n">
-        <v>149155</v>
+        <v>180611</v>
       </c>
       <c r="C440" t="s">
         <v>3302</v>
@@ -44151,7 +44151,7 @@
         <v>19826</v>
       </c>
       <c r="B441" t="n">
-        <v>149156</v>
+        <v>180612</v>
       </c>
       <c r="C441" t="s">
         <v>3307</v>
@@ -44213,7 +44213,7 @@
         <v>19826</v>
       </c>
       <c r="B442" t="n">
-        <v>149157</v>
+        <v>180613</v>
       </c>
       <c r="C442" t="s">
         <v>3311</v>
@@ -44284,7 +44284,7 @@
         <v>19826</v>
       </c>
       <c r="B443" t="n">
-        <v>149158</v>
+        <v>180614</v>
       </c>
       <c r="C443" t="s">
         <v>3317</v>
@@ -44351,7 +44351,7 @@
         <v>19826</v>
       </c>
       <c r="B444" t="n">
-        <v>149159</v>
+        <v>180615</v>
       </c>
       <c r="C444" t="s">
         <v>3324</v>
@@ -44422,7 +44422,7 @@
         <v>19826</v>
       </c>
       <c r="B445" t="n">
-        <v>149160</v>
+        <v>180616</v>
       </c>
       <c r="C445" t="s">
         <v>3330</v>
@@ -44493,7 +44493,7 @@
         <v>19826</v>
       </c>
       <c r="B446" t="n">
-        <v>149161</v>
+        <v>180617</v>
       </c>
       <c r="C446" t="s">
         <v>3337</v>
@@ -44560,7 +44560,7 @@
         <v>19826</v>
       </c>
       <c r="B447" t="n">
-        <v>149162</v>
+        <v>180618</v>
       </c>
       <c r="C447" t="s">
         <v>3343</v>
@@ -44631,7 +44631,7 @@
         <v>19826</v>
       </c>
       <c r="B448" t="n">
-        <v>149163</v>
+        <v>180619</v>
       </c>
       <c r="C448" t="s">
         <v>3349</v>
@@ -44698,7 +44698,7 @@
         <v>19826</v>
       </c>
       <c r="B449" t="n">
-        <v>149164</v>
+        <v>180620</v>
       </c>
       <c r="C449" t="s">
         <v>3355</v>
@@ -44769,7 +44769,7 @@
         <v>19826</v>
       </c>
       <c r="B450" t="n">
-        <v>149165</v>
+        <v>180621</v>
       </c>
       <c r="C450" t="s">
         <v>3362</v>
@@ -44840,7 +44840,7 @@
         <v>19826</v>
       </c>
       <c r="B451" t="n">
-        <v>149166</v>
+        <v>180622</v>
       </c>
       <c r="C451" t="s">
         <v>3368</v>
@@ -44901,7 +44901,7 @@
         <v>19826</v>
       </c>
       <c r="B452" t="n">
-        <v>149167</v>
+        <v>180623</v>
       </c>
       <c r="C452" t="s">
         <v>3373</v>
@@ -44972,7 +44972,7 @@
         <v>19826</v>
       </c>
       <c r="B453" t="n">
-        <v>149168</v>
+        <v>180624</v>
       </c>
       <c r="C453" t="s">
         <v>3381</v>
@@ -45043,7 +45043,7 @@
         <v>19826</v>
       </c>
       <c r="B454" t="n">
-        <v>149169</v>
+        <v>180625</v>
       </c>
       <c r="C454" t="s">
         <v>3388</v>
@@ -45114,7 +45114,7 @@
         <v>19826</v>
       </c>
       <c r="B455" t="n">
-        <v>149170</v>
+        <v>180626</v>
       </c>
       <c r="C455" t="s">
         <v>3396</v>
@@ -45398,7 +45398,7 @@
         <v>19826</v>
       </c>
       <c r="B459" t="n">
-        <v>149171</v>
+        <v>180627</v>
       </c>
       <c r="C459" t="s">
         <v>3425</v>
@@ -45469,7 +45469,7 @@
         <v>19826</v>
       </c>
       <c r="B460" t="n">
-        <v>149172</v>
+        <v>180628</v>
       </c>
       <c r="C460" t="s">
         <v>3431</v>
@@ -45540,7 +45540,7 @@
         <v>19826</v>
       </c>
       <c r="B461" t="n">
-        <v>149173</v>
+        <v>180629</v>
       </c>
       <c r="C461" t="s">
         <v>3437</v>
@@ -45753,7 +45753,7 @@
         <v>19826</v>
       </c>
       <c r="B464" t="n">
-        <v>149174</v>
+        <v>180630</v>
       </c>
       <c r="C464" t="s">
         <v>3458</v>
@@ -45824,7 +45824,7 @@
         <v>19826</v>
       </c>
       <c r="B465" t="n">
-        <v>149175</v>
+        <v>180631</v>
       </c>
       <c r="C465" t="s">
         <v>3465</v>
@@ -45895,7 +45895,7 @@
         <v>19826</v>
       </c>
       <c r="B466" t="n">
-        <v>149100</v>
+        <v>148959</v>
       </c>
       <c r="C466" t="s">
         <v>2859</v>
@@ -45966,7 +45966,7 @@
         <v>19826</v>
       </c>
       <c r="B467" t="n">
-        <v>149176</v>
+        <v>180632</v>
       </c>
       <c r="C467" t="s">
         <v>3478</v>
@@ -46027,7 +46027,7 @@
         <v>19826</v>
       </c>
       <c r="B468" t="n">
-        <v>149177</v>
+        <v>180633</v>
       </c>
       <c r="C468" t="s">
         <v>3484</v>
@@ -46098,7 +46098,7 @@
         <v>19826</v>
       </c>
       <c r="B469" t="n">
-        <v>149178</v>
+        <v>180634</v>
       </c>
       <c r="C469" t="s">
         <v>3491</v>
@@ -46169,7 +46169,7 @@
         <v>19826</v>
       </c>
       <c r="B470" t="n">
-        <v>149179</v>
+        <v>180635</v>
       </c>
       <c r="C470" t="s">
         <v>3498</v>
@@ -46240,7 +46240,7 @@
         <v>19826</v>
       </c>
       <c r="B471" t="n">
-        <v>149180</v>
+        <v>180636</v>
       </c>
       <c r="C471" t="s">
         <v>3504</v>
@@ -46311,7 +46311,7 @@
         <v>19826</v>
       </c>
       <c r="B472" t="n">
-        <v>149181</v>
+        <v>180637</v>
       </c>
       <c r="C472" t="s">
         <v>3509</v>
@@ -46382,7 +46382,7 @@
         <v>19826</v>
       </c>
       <c r="B473" t="n">
-        <v>149182</v>
+        <v>180638</v>
       </c>
       <c r="C473" t="s">
         <v>3516</v>
@@ -46524,7 +46524,7 @@
         <v>19826</v>
       </c>
       <c r="B475" t="n">
-        <v>149183</v>
+        <v>180639</v>
       </c>
       <c r="C475" t="s">
         <v>3529</v>
@@ -46595,7 +46595,7 @@
         <v>19826</v>
       </c>
       <c r="B476" t="n">
-        <v>149184</v>
+        <v>180640</v>
       </c>
       <c r="C476" t="s">
         <v>3535</v>
@@ -46656,7 +46656,7 @@
         <v>19826</v>
       </c>
       <c r="B477" t="n">
-        <v>149185</v>
+        <v>180641</v>
       </c>
       <c r="C477" t="s">
         <v>3541</v>
@@ -46727,7 +46727,7 @@
         <v>19826</v>
       </c>
       <c r="B478" t="n">
-        <v>149186</v>
+        <v>180642</v>
       </c>
       <c r="C478" t="s">
         <v>3547</v>
@@ -46798,7 +46798,7 @@
         <v>19826</v>
       </c>
       <c r="B479" t="n">
-        <v>149187</v>
+        <v>180643</v>
       </c>
       <c r="C479" t="s">
         <v>3554</v>
@@ -46869,7 +46869,7 @@
         <v>19826</v>
       </c>
       <c r="B480" t="n">
-        <v>149188</v>
+        <v>180644</v>
       </c>
       <c r="C480" t="s">
         <v>3560</v>
@@ -46940,7 +46940,7 @@
         <v>19826</v>
       </c>
       <c r="B481" t="n">
-        <v>149189</v>
+        <v>180645</v>
       </c>
       <c r="C481" t="s">
         <v>3566</v>
@@ -47011,7 +47011,7 @@
         <v>19826</v>
       </c>
       <c r="B482" t="n">
-        <v>149190</v>
+        <v>180646</v>
       </c>
       <c r="C482" t="s">
         <v>3573</v>
@@ -47082,7 +47082,7 @@
         <v>19826</v>
       </c>
       <c r="B483" t="n">
-        <v>149191</v>
+        <v>180647</v>
       </c>
       <c r="C483" t="s">
         <v>3579</v>
@@ -47149,7 +47149,7 @@
         <v>19826</v>
       </c>
       <c r="B484" t="n">
-        <v>149192</v>
+        <v>180648</v>
       </c>
       <c r="C484" t="s">
         <v>3586</v>
@@ -47220,7 +47220,7 @@
         <v>19826</v>
       </c>
       <c r="B485" t="n">
-        <v>149193</v>
+        <v>180649</v>
       </c>
       <c r="C485" t="s">
         <v>3594</v>
@@ -47291,7 +47291,7 @@
         <v>19826</v>
       </c>
       <c r="B486" t="n">
-        <v>149148</v>
+        <v>148961</v>
       </c>
       <c r="C486" t="s">
         <v>3263</v>
@@ -47362,7 +47362,7 @@
         <v>19826</v>
       </c>
       <c r="B487" t="n">
-        <v>149194</v>
+        <v>180650</v>
       </c>
       <c r="C487" t="s">
         <v>3607</v>
@@ -47433,7 +47433,7 @@
         <v>19826</v>
       </c>
       <c r="B488" t="n">
-        <v>149195</v>
+        <v>180651</v>
       </c>
       <c r="C488" t="s">
         <v>3613</v>
@@ -47571,7 +47571,7 @@
         <v>19826</v>
       </c>
       <c r="B490" t="n">
-        <v>149196</v>
+        <v>180652</v>
       </c>
       <c r="C490" t="s">
         <v>3626</v>
@@ -47642,7 +47642,7 @@
         <v>19826</v>
       </c>
       <c r="B491" t="n">
-        <v>149197</v>
+        <v>180653</v>
       </c>
       <c r="C491" t="s">
         <v>3633</v>
@@ -47713,7 +47713,7 @@
         <v>19826</v>
       </c>
       <c r="B492" t="n">
-        <v>149198</v>
+        <v>180654</v>
       </c>
       <c r="C492" t="s">
         <v>3640</v>
@@ -47784,7 +47784,7 @@
         <v>19826</v>
       </c>
       <c r="B493" t="n">
-        <v>149199</v>
+        <v>180655</v>
       </c>
       <c r="C493" t="s">
         <v>3647</v>
@@ -47855,7 +47855,7 @@
         <v>19826</v>
       </c>
       <c r="B494" t="n">
-        <v>149200</v>
+        <v>180656</v>
       </c>
       <c r="C494" t="s">
         <v>3653</v>
@@ -47926,7 +47926,7 @@
         <v>19826</v>
       </c>
       <c r="B495" t="n">
-        <v>149201</v>
+        <v>180657</v>
       </c>
       <c r="C495" t="s">
         <v>3660</v>
@@ -48068,7 +48068,7 @@
         <v>19826</v>
       </c>
       <c r="B497" t="n">
-        <v>149202</v>
+        <v>180658</v>
       </c>
       <c r="C497" t="s">
         <v>3672</v>
@@ -48129,7 +48129,7 @@
         <v>19826</v>
       </c>
       <c r="B498" t="n">
-        <v>149203</v>
+        <v>180659</v>
       </c>
       <c r="C498" t="s">
         <v>3678</v>
@@ -48326,7 +48326,7 @@
         <v>19826</v>
       </c>
       <c r="B501" t="n">
-        <v>149204</v>
+        <v>180660</v>
       </c>
       <c r="C501" t="s">
         <v>3697</v>
@@ -48460,7 +48460,7 @@
         <v>19826</v>
       </c>
       <c r="B503" t="n">
-        <v>149205</v>
+        <v>180661</v>
       </c>
       <c r="C503" t="s">
         <v>3711</v>
@@ -48594,7 +48594,7 @@
         <v>19826</v>
       </c>
       <c r="B505" t="n">
-        <v>149206</v>
+        <v>180662</v>
       </c>
       <c r="C505" t="s">
         <v>3725</v>
@@ -48728,7 +48728,7 @@
         <v>19826</v>
       </c>
       <c r="B507" t="n">
-        <v>149207</v>
+        <v>180663</v>
       </c>
       <c r="C507" t="s">
         <v>3738</v>
@@ -48795,7 +48795,7 @@
         <v>19826</v>
       </c>
       <c r="B508" t="n">
-        <v>149208</v>
+        <v>180664</v>
       </c>
       <c r="C508" t="s">
         <v>3744</v>
@@ -48862,7 +48862,7 @@
         <v>19826</v>
       </c>
       <c r="B509" t="n">
-        <v>149209</v>
+        <v>180665</v>
       </c>
       <c r="C509" t="s">
         <v>3750</v>
@@ -48929,7 +48929,7 @@
         <v>19826</v>
       </c>
       <c r="B510" t="n">
-        <v>149210</v>
+        <v>180666</v>
       </c>
       <c r="C510" t="s">
         <v>3756</v>
@@ -48996,7 +48996,7 @@
         <v>19826</v>
       </c>
       <c r="B511" t="n">
-        <v>149211</v>
+        <v>180667</v>
       </c>
       <c r="C511" t="s">
         <v>3762</v>
@@ -49063,7 +49063,7 @@
         <v>19826</v>
       </c>
       <c r="B512" t="n">
-        <v>149212</v>
+        <v>180668</v>
       </c>
       <c r="C512" t="s">
         <v>3768</v>
@@ -49130,7 +49130,7 @@
         <v>19826</v>
       </c>
       <c r="B513" t="n">
-        <v>149213</v>
+        <v>180669</v>
       </c>
       <c r="C513" t="s">
         <v>3774</v>
@@ -49268,7 +49268,7 @@
         <v>19826</v>
       </c>
       <c r="B515" t="n">
-        <v>149214</v>
+        <v>180670</v>
       </c>
       <c r="C515" t="s">
         <v>3788</v>
@@ -49339,7 +49339,7 @@
         <v>19826</v>
       </c>
       <c r="B516" t="n">
-        <v>149215</v>
+        <v>180671</v>
       </c>
       <c r="C516" t="s">
         <v>3795</v>
@@ -49410,7 +49410,7 @@
         <v>19826</v>
       </c>
       <c r="B517" t="n">
-        <v>149216</v>
+        <v>180672</v>
       </c>
       <c r="C517" t="s">
         <v>3801</v>
@@ -49481,7 +49481,7 @@
         <v>19826</v>
       </c>
       <c r="B518" t="n">
-        <v>149217</v>
+        <v>180673</v>
       </c>
       <c r="C518" t="s">
         <v>3807</v>
@@ -49552,7 +49552,7 @@
         <v>19826</v>
       </c>
       <c r="B519" t="n">
-        <v>149218</v>
+        <v>180674</v>
       </c>
       <c r="C519" t="s">
         <v>3814</v>
@@ -49623,7 +49623,7 @@
         <v>19826</v>
       </c>
       <c r="B520" t="n">
-        <v>149219</v>
+        <v>180675</v>
       </c>
       <c r="C520" t="s">
         <v>3822</v>
@@ -49694,7 +49694,7 @@
         <v>19826</v>
       </c>
       <c r="B521" t="n">
-        <v>149220</v>
+        <v>180676</v>
       </c>
       <c r="C521" t="s">
         <v>3827</v>
@@ -49765,7 +49765,7 @@
         <v>19826</v>
       </c>
       <c r="B522" t="n">
-        <v>149221</v>
+        <v>180677</v>
       </c>
       <c r="C522" t="s">
         <v>3834</v>
@@ -49836,7 +49836,7 @@
         <v>19826</v>
       </c>
       <c r="B523" t="n">
-        <v>149222</v>
+        <v>180678</v>
       </c>
       <c r="C523" t="s">
         <v>3840</v>
@@ -49907,7 +49907,7 @@
         <v>19826</v>
       </c>
       <c r="B524" t="n">
-        <v>149223</v>
+        <v>180679</v>
       </c>
       <c r="C524" t="s">
         <v>3848</v>
@@ -49978,7 +49978,7 @@
         <v>19826</v>
       </c>
       <c r="B525" t="n">
-        <v>149224</v>
+        <v>180680</v>
       </c>
       <c r="C525" t="s">
         <v>3854</v>
@@ -50049,7 +50049,7 @@
         <v>19826</v>
       </c>
       <c r="B526" t="n">
-        <v>149225</v>
+        <v>180681</v>
       </c>
       <c r="C526" t="s">
         <v>3860</v>
@@ -50120,7 +50120,7 @@
         <v>19826</v>
       </c>
       <c r="B527" t="n">
-        <v>149226</v>
+        <v>180682</v>
       </c>
       <c r="C527" t="s">
         <v>3868</v>
@@ -50191,7 +50191,7 @@
         <v>19826</v>
       </c>
       <c r="B528" t="n">
-        <v>149227</v>
+        <v>180683</v>
       </c>
       <c r="C528" t="s">
         <v>3875</v>
@@ -50262,7 +50262,7 @@
         <v>19826</v>
       </c>
       <c r="B529" t="n">
-        <v>149228</v>
+        <v>180684</v>
       </c>
       <c r="C529" t="s">
         <v>3881</v>
@@ -50333,7 +50333,7 @@
         <v>19826</v>
       </c>
       <c r="B530" t="n">
-        <v>149229</v>
+        <v>180685</v>
       </c>
       <c r="C530" t="s">
         <v>3887</v>
@@ -50400,7 +50400,7 @@
         <v>19826</v>
       </c>
       <c r="B531" t="n">
-        <v>149230</v>
+        <v>180686</v>
       </c>
       <c r="C531" t="s">
         <v>3893</v>
@@ -50471,7 +50471,7 @@
         <v>19826</v>
       </c>
       <c r="B532" t="n">
-        <v>149231</v>
+        <v>180687</v>
       </c>
       <c r="C532" t="s">
         <v>3900</v>
@@ -50542,7 +50542,7 @@
         <v>19826</v>
       </c>
       <c r="B533" t="n">
-        <v>149232</v>
+        <v>180688</v>
       </c>
       <c r="C533" t="s">
         <v>3907</v>
@@ -50613,7 +50613,7 @@
         <v>19826</v>
       </c>
       <c r="B534" t="n">
-        <v>149233</v>
+        <v>180689</v>
       </c>
       <c r="C534" t="s">
         <v>3914</v>
@@ -50684,7 +50684,7 @@
         <v>19826</v>
       </c>
       <c r="B535" t="n">
-        <v>149234</v>
+        <v>180690</v>
       </c>
       <c r="C535" t="s">
         <v>3922</v>
@@ -50755,7 +50755,7 @@
         <v>19826</v>
       </c>
       <c r="B536" t="n">
-        <v>149148</v>
+        <v>148961</v>
       </c>
       <c r="C536" t="s">
         <v>3263</v>
@@ -50826,7 +50826,7 @@
         <v>19826</v>
       </c>
       <c r="B537" t="n">
-        <v>149235</v>
+        <v>180691</v>
       </c>
       <c r="C537" t="s">
         <v>3935</v>
@@ -50897,7 +50897,7 @@
         <v>19826</v>
       </c>
       <c r="B538" t="n">
-        <v>149236</v>
+        <v>180692</v>
       </c>
       <c r="C538" t="s">
         <v>3942</v>
@@ -50968,7 +50968,7 @@
         <v>19826</v>
       </c>
       <c r="B539" t="n">
-        <v>149237</v>
+        <v>180693</v>
       </c>
       <c r="C539" t="s">
         <v>3949</v>
@@ -51039,7 +51039,7 @@
         <v>19826</v>
       </c>
       <c r="B540" t="n">
-        <v>149238</v>
+        <v>180694</v>
       </c>
       <c r="C540" t="s">
         <v>3955</v>
@@ -51100,7 +51100,7 @@
         <v>19826</v>
       </c>
       <c r="B541" t="n">
-        <v>149239</v>
+        <v>180695</v>
       </c>
       <c r="C541" t="s">
         <v>3960</v>
@@ -51171,7 +51171,7 @@
         <v>19826</v>
       </c>
       <c r="B542" t="n">
-        <v>149240</v>
+        <v>180696</v>
       </c>
       <c r="C542" t="s">
         <v>3966</v>
@@ -51242,7 +51242,7 @@
         <v>19826</v>
       </c>
       <c r="B543" t="n">
-        <v>149241</v>
+        <v>180697</v>
       </c>
       <c r="C543" t="s">
         <v>3974</v>
@@ -51313,7 +51313,7 @@
         <v>19826</v>
       </c>
       <c r="B544" t="n">
-        <v>149242</v>
+        <v>180698</v>
       </c>
       <c r="C544" t="s">
         <v>3981</v>
@@ -51384,7 +51384,7 @@
         <v>19826</v>
       </c>
       <c r="B545" t="n">
-        <v>149243</v>
+        <v>180699</v>
       </c>
       <c r="C545" t="s">
         <v>3988</v>
@@ -51455,7 +51455,7 @@
         <v>19826</v>
       </c>
       <c r="B546" t="n">
-        <v>149244</v>
+        <v>180700</v>
       </c>
       <c r="C546" t="s">
         <v>3996</v>
@@ -51526,7 +51526,7 @@
         <v>19826</v>
       </c>
       <c r="B547" t="n">
-        <v>149245</v>
+        <v>180701</v>
       </c>
       <c r="C547" t="s">
         <v>4004</v>
@@ -51668,7 +51668,7 @@
         <v>19826</v>
       </c>
       <c r="B549" t="n">
-        <v>149246</v>
+        <v>180702</v>
       </c>
       <c r="C549" t="s">
         <v>4018</v>
@@ -51735,7 +51735,7 @@
         <v>19826</v>
       </c>
       <c r="B550" t="n">
-        <v>149247</v>
+        <v>180703</v>
       </c>
       <c r="C550" t="s">
         <v>4024</v>
@@ -51806,7 +51806,7 @@
         <v>19826</v>
       </c>
       <c r="B551" t="n">
-        <v>149248</v>
+        <v>180704</v>
       </c>
       <c r="C551" t="s">
         <v>4032</v>
@@ -51863,7 +51863,7 @@
         <v>19826</v>
       </c>
       <c r="B552" t="n">
-        <v>149249</v>
+        <v>180705</v>
       </c>
       <c r="C552" t="s">
         <v>4039</v>
@@ -51934,7 +51934,7 @@
         <v>19826</v>
       </c>
       <c r="B553" t="n">
-        <v>149250</v>
+        <v>180706</v>
       </c>
       <c r="C553" t="s">
         <v>4047</v>
@@ -52005,7 +52005,7 @@
         <v>19826</v>
       </c>
       <c r="B554" t="n">
-        <v>149251</v>
+        <v>180707</v>
       </c>
       <c r="C554" t="s">
         <v>4054</v>
@@ -52076,7 +52076,7 @@
         <v>19826</v>
       </c>
       <c r="B555" t="n">
-        <v>149252</v>
+        <v>180708</v>
       </c>
       <c r="C555" t="s">
         <v>4062</v>
@@ -52147,7 +52147,7 @@
         <v>19826</v>
       </c>
       <c r="B556" t="n">
-        <v>149253</v>
+        <v>180709</v>
       </c>
       <c r="C556" t="s">
         <v>4070</v>
@@ -52218,7 +52218,7 @@
         <v>19826</v>
       </c>
       <c r="B557" t="n">
-        <v>149254</v>
+        <v>180710</v>
       </c>
       <c r="C557" t="s">
         <v>4076</v>
@@ -52275,7 +52275,7 @@
         <v>19826</v>
       </c>
       <c r="B558" t="n">
-        <v>149255</v>
+        <v>180711</v>
       </c>
       <c r="C558" t="s">
         <v>4082</v>
@@ -52332,7 +52332,7 @@
         <v>19826</v>
       </c>
       <c r="B559" t="n">
-        <v>149256</v>
+        <v>180712</v>
       </c>
       <c r="C559" t="s">
         <v>4087</v>
@@ -52403,7 +52403,7 @@
         <v>19826</v>
       </c>
       <c r="B560" t="n">
-        <v>149257</v>
+        <v>180713</v>
       </c>
       <c r="C560" t="s">
         <v>4095</v>
@@ -52474,7 +52474,7 @@
         <v>19826</v>
       </c>
       <c r="B561" t="n">
-        <v>149258</v>
+        <v>180714</v>
       </c>
       <c r="C561" t="s">
         <v>4103</v>
@@ -52545,7 +52545,7 @@
         <v>19826</v>
       </c>
       <c r="B562" t="n">
-        <v>149259</v>
+        <v>180715</v>
       </c>
       <c r="C562" t="s">
         <v>4109</v>
@@ -52616,7 +52616,7 @@
         <v>19826</v>
       </c>
       <c r="B563" t="n">
-        <v>149260</v>
+        <v>180716</v>
       </c>
       <c r="C563" t="s">
         <v>4116</v>
@@ -52691,7 +52691,7 @@
         <v>19826</v>
       </c>
       <c r="B564" t="n">
-        <v>149261</v>
+        <v>180717</v>
       </c>
       <c r="C564" t="s">
         <v>4126</v>
@@ -52760,7 +52760,7 @@
         <v>19826</v>
       </c>
       <c r="B565" t="n">
-        <v>149262</v>
+        <v>180718</v>
       </c>
       <c r="C565" t="s">
         <v>4133</v>
@@ -52817,7 +52817,7 @@
         <v>19826</v>
       </c>
       <c r="B566" t="n">
-        <v>149263</v>
+        <v>180719</v>
       </c>
       <c r="C566" t="s">
         <v>4139</v>
@@ -52888,7 +52888,7 @@
         <v>19826</v>
       </c>
       <c r="B567" t="n">
-        <v>149264</v>
+        <v>180720</v>
       </c>
       <c r="C567" t="s">
         <v>4146</v>
@@ -52959,7 +52959,7 @@
         <v>19826</v>
       </c>
       <c r="B568" t="n">
-        <v>149265</v>
+        <v>180721</v>
       </c>
       <c r="C568" t="s">
         <v>4153</v>
@@ -53028,7 +53028,7 @@
         <v>19826</v>
       </c>
       <c r="B569" t="n">
-        <v>149266</v>
+        <v>180722</v>
       </c>
       <c r="C569" t="s">
         <v>4160</v>
@@ -53237,7 +53237,7 @@
         <v>19826</v>
       </c>
       <c r="B572" t="n">
-        <v>149267</v>
+        <v>180723</v>
       </c>
       <c r="C572" t="s">
         <v>4182</v>
@@ -53306,7 +53306,7 @@
         <v>19826</v>
       </c>
       <c r="B573" t="n">
-        <v>149268</v>
+        <v>180724</v>
       </c>
       <c r="C573" t="s">
         <v>4189</v>
@@ -53439,7 +53439,7 @@
         <v>19826</v>
       </c>
       <c r="B575" t="n">
-        <v>149269</v>
+        <v>180725</v>
       </c>
       <c r="C575" t="s">
         <v>4202</v>
@@ -53510,7 +53510,7 @@
         <v>19826</v>
       </c>
       <c r="B576" t="n">
-        <v>149270</v>
+        <v>180726</v>
       </c>
       <c r="C576" t="s">
         <v>4210</v>
@@ -53572,7 +53572,7 @@
         <v>19826</v>
       </c>
       <c r="B577" t="n">
-        <v>149271</v>
+        <v>180727</v>
       </c>
       <c r="C577" t="s">
         <v>4214</v>
@@ -53643,7 +53643,7 @@
         <v>19826</v>
       </c>
       <c r="B578" t="n">
-        <v>149272</v>
+        <v>180728</v>
       </c>
       <c r="C578" t="s">
         <v>4222</v>
@@ -53756,7 +53756,7 @@
         <v>19826</v>
       </c>
       <c r="B580" t="n">
-        <v>149273</v>
+        <v>180729</v>
       </c>
       <c r="C580" t="s">
         <v>4231</v>
@@ -53878,7 +53878,7 @@
         <v>19826</v>
       </c>
       <c r="B582" t="n">
-        <v>149274</v>
+        <v>180730</v>
       </c>
       <c r="C582" t="s">
         <v>4243</v>
@@ -54068,7 +54068,7 @@
         <v>19826</v>
       </c>
       <c r="B585" t="n">
-        <v>149275</v>
+        <v>180731</v>
       </c>
       <c r="C585" t="s">
         <v>4260</v>
@@ -54131,7 +54131,7 @@
         <v>19826</v>
       </c>
       <c r="B586" t="n">
-        <v>149276</v>
+        <v>180732</v>
       </c>
       <c r="C586" t="s">
         <v>4264</v>
@@ -54187,7 +54187,7 @@
         <v>19826</v>
       </c>
       <c r="B587" t="n">
-        <v>149277</v>
+        <v>180733</v>
       </c>
       <c r="C587" t="s">
         <v>4268</v>
@@ -54292,7 +54292,7 @@
         <v>19826</v>
       </c>
       <c r="B589" t="n">
-        <v>149278</v>
+        <v>180734</v>
       </c>
       <c r="C589" t="s">
         <v>4278</v>
